--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_0_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_0_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>858055.6999204335</v>
+        <v>726286.131054225</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>313287.7063949126</v>
+        <v>213693.6216327179</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22937821.08285648</v>
+        <v>22937821.08285649</v>
       </c>
     </row>
     <row r="9">
@@ -1381,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>10.91164557488552</v>
+        <v>71.78956258848193</v>
       </c>
       <c r="G11" t="n">
-        <v>81.50495298419864</v>
+        <v>81.5049529841984</v>
       </c>
       <c r="H11" t="n">
-        <v>81.50495298419864</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>81.50495298419864</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>60.87791701359666</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>81.5049529841984</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>81.5049529841984</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>57.45921747272857</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>81.50495298419864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>81.50495298419864</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>81.50495298419864</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>14.33034511575361</v>
+        <v>81.5049529841984</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>81.5049529841984</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>81.5049529841984</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>71.78956258848193</v>
       </c>
     </row>
     <row r="13">
@@ -1609,64 +1609,64 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>71.78956258848217</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>81.50495298419864</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>10.91164557488552</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
         <v>81.50495298419864</v>
       </c>
-      <c r="H14" t="n">
+      <c r="V14" t="n">
         <v>81.50495298419864</v>
-      </c>
-      <c r="I14" t="n">
-        <v>81.50495298419864</v>
-      </c>
-      <c r="J14" t="n">
-        <v>60.87791701359666</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>50.38803837475534</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>57.45921747272857</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1730,25 +1730,25 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>21.40152421372684</v>
+        <v>21.40152421372682</v>
       </c>
       <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
         <v>81.50495298419864</v>
       </c>
-      <c r="S15" t="n">
+      <c r="V15" t="n">
         <v>81.50495298419864</v>
       </c>
-      <c r="T15" t="n">
-        <v>74.43377388622541</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>81.50495298419864</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1858,55 +1858,55 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
         <v>110.8773466326149</v>
       </c>
-      <c r="H17" t="n">
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
         <v>110.8773466326149</v>
       </c>
-      <c r="I17" t="n">
+      <c r="V17" t="n">
         <v>110.8773466326149</v>
       </c>
-      <c r="J17" t="n">
+      <c r="W17" t="n">
         <v>41.24814767285864</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1940,52 +1940,52 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>21.40152421372682</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
         <v>110.8773466326149</v>
       </c>
-      <c r="I18" t="n">
-        <v>108.2050514113203</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>100.3330621353017</v>
-      </c>
-      <c r="S18" t="n">
+      <c r="U18" t="n">
         <v>110.8773466326149</v>
       </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>110.8773466326149</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>76.25924270028031</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>110.8773466326149</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2098,38 +2098,38 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>41.24814767285864</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>66.42553221961856</v>
+      </c>
+      <c r="R20" t="n">
         <v>110.8773466326149</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
@@ -2137,10 +2137,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>110.8773466326149</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>110.8773466326149</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>85.69996208585503</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>110.8773466326149</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2168,49 +2168,49 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>110.8773466326149</v>
       </c>
       <c r="F21" t="n">
-        <v>100.3330621353017</v>
+        <v>76.25924270028031</v>
       </c>
       <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>21.40152421372682</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
         <v>110.8773466326149</v>
-      </c>
-      <c r="H21" t="n">
-        <v>110.8773466326149</v>
-      </c>
-      <c r="I21" t="n">
-        <v>108.2050514113203</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>114.4328572255196</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2338,10 +2338,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>114.4328572255196</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>34.06637182625037</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2362,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>34.0663718262503</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>114.4328572255197</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2374,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>114.4328572255197</v>
       </c>
       <c r="V23" t="n">
-        <v>114.4328572255196</v>
+        <v>114.4328572255197</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2396,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>114.4328572255196</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>114.4328572255196</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>114.4328572255196</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2441,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>21.40152421372684</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2450,22 +2450,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>114.4328572255197</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>114.4328572255197</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>114.4328572255197</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>100.7924606442377</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>79.39093643051079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2560,22 +2560,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>114.4328572255197</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>34.06637182625035</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>114.4328572255196</v>
+        <v>114.4328572255197</v>
       </c>
       <c r="H26" t="n">
-        <v>114.4328572255196</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>114.4328572255196</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>34.0663718262503</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>114.4328572255197</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>79.39093643051085</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2642,13 +2642,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>114.4328572255196</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>114.4328572255197</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2678,16 +2678,16 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>21.40152421372682</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>114.4328572255196</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>114.4328572255197</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2696,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>100.7924606442376</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>114.4328572255196</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>114.4328572255197</v>
       </c>
     </row>
     <row r="28">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>114.4328572255196</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>114.4328572255196</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>34.06637182625037</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>114.4328572255197</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>114.4328572255197</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>34.0663718262503</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>114.4328572255197</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>114.4328572255196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>114.4328572255196</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>21.40152421372684</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2927,19 +2927,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>114.4328572255196</v>
+        <v>114.4328572255197</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>114.4328572255197</v>
       </c>
       <c r="W30" t="n">
-        <v>114.4328572255196</v>
+        <v>100.7924606442377</v>
       </c>
       <c r="X30" t="n">
-        <v>79.39093643051081</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>114.4328572255197</v>
       </c>
     </row>
     <row r="31">
@@ -3034,19 +3034,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>114.4328572255196</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>34.0663718262503</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>34.06637182625037</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>114.4328572255196</v>
+        <v>114.4328572255197</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>114.4328572255197</v>
       </c>
       <c r="V32" t="n">
-        <v>114.4328572255196</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>114.4328572255197</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3128,52 +3128,52 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>114.4328572255197</v>
+      </c>
+      <c r="U33" t="n">
+        <v>114.4328572255197</v>
+      </c>
+      <c r="V33" t="n">
+        <v>114.4328572255197</v>
+      </c>
+      <c r="W33" t="n">
         <v>100.7924606442377</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>114.4328572255196</v>
-      </c>
-      <c r="U33" t="n">
-        <v>114.4328572255196</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
       <c r="X33" t="n">
-        <v>114.4328572255196</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3277,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>41.24814767285864</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>110.8773466326149</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3310,13 +3310,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>66.42553221961856</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>110.8773466326149</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>85.69996208585503</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>110.8773466326149</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>110.8773466326149</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>110.8773466326149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,76 +3344,76 @@
         </is>
       </c>
       <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>97.66076691400716</v>
+      </c>
+      <c r="V36" t="n">
         <v>110.8773466326149</v>
       </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
+      <c r="W36" t="n">
         <v>110.8773466326149</v>
       </c>
-      <c r="T36" t="n">
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
         <v>110.8773466326149</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>97.66076691400716</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0</v>
-      </c>
-      <c r="X36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3505,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
         <v>41.24814767285864</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>110.8773466326149</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>110.8773466326149</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,17 +3550,17 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
         <v>110.8773466326149</v>
       </c>
-      <c r="S38" t="n">
-        <v>110.8773466326149</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>110.8773466326149</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3584,64 +3584,64 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
         <v>110.8773466326149</v>
       </c>
-      <c r="D39" t="n">
-        <v>18.80002522755175</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>57.45921747272857</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>21.40152421372684</v>
-      </c>
-      <c r="R39" t="n">
+      <c r="V39" t="n">
         <v>110.8773466326149</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>110.8773466326149</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>97.66076691400716</v>
       </c>
     </row>
     <row r="40">
@@ -3739,56 +3739,56 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>60.87791701359663</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>66.42553221961856</v>
+      </c>
+      <c r="R41" t="n">
         <v>81.50495298419864</v>
       </c>
-      <c r="C41" t="n">
-        <v>5.364030368863384</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>66.42553221961859</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>81.50495298419864</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>25.99106633946562</v>
       </c>
       <c r="W41" t="n">
-        <v>81.50495298419864</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>81.50495298419864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3875,16 +3875,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>71.78956258848214</v>
       </c>
       <c r="V42" t="n">
-        <v>71.78956258848214</v>
+        <v>81.50495298419864</v>
       </c>
       <c r="W42" t="n">
         <v>81.50495298419864</v>
       </c>
       <c r="X42" t="n">
-        <v>81.50495298419864</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>81.50495298419864</v>
@@ -3976,11 +3976,11 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
         <v>81.50495298419864</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>71.78956258848217</v>
+        <v>81.50495298419864</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>81.50495298419864</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>71.78956258848197</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>81.50495298419864</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>81.50495298419864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4064,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>81.50495298419864</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4100,25 +4100,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>21.40152421372684</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>50.3880383747553</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>71.78956258848214</v>
+      </c>
+      <c r="W45" t="n">
         <v>81.50495298419864</v>
-      </c>
-      <c r="U45" t="n">
-        <v>0</v>
-      </c>
-      <c r="V45" t="n">
-        <v>81.50495298419864</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>326.0198119367946</v>
+        <v>161.3633412616453</v>
       </c>
       <c r="C11" t="n">
-        <v>326.0198119367946</v>
+        <v>161.3633412616453</v>
       </c>
       <c r="D11" t="n">
-        <v>326.0198119367946</v>
+        <v>161.3633412616453</v>
       </c>
       <c r="E11" t="n">
-        <v>326.0198119367946</v>
+        <v>161.3633412616453</v>
       </c>
       <c r="F11" t="n">
-        <v>314.9979477197385</v>
+        <v>88.84863157631001</v>
       </c>
       <c r="G11" t="n">
-        <v>232.6697123821641</v>
+        <v>6.520396238735872</v>
       </c>
       <c r="H11" t="n">
-        <v>150.3414770445897</v>
+        <v>6.520396238735872</v>
       </c>
       <c r="I11" t="n">
-        <v>68.01324170701534</v>
+        <v>6.520396238735872</v>
       </c>
       <c r="J11" t="n">
-        <v>6.520396238735891</v>
+        <v>6.520396238735872</v>
       </c>
       <c r="K11" t="n">
-        <v>8.599299068845568</v>
+        <v>8.599299068845312</v>
       </c>
       <c r="L11" t="n">
-        <v>69.14465365390939</v>
+        <v>69.14465365390915</v>
       </c>
       <c r="M11" t="n">
-        <v>149.834557108266</v>
+        <v>149.8345571082656</v>
       </c>
       <c r="N11" t="n">
-        <v>230.5244605626227</v>
+        <v>230.524460562622</v>
       </c>
       <c r="O11" t="n">
-        <v>309.7151681994167</v>
+        <v>309.7151681994159</v>
       </c>
       <c r="P11" t="n">
-        <v>326.0198119367946</v>
+        <v>326.0198119367936</v>
       </c>
       <c r="Q11" t="n">
-        <v>326.0198119367946</v>
+        <v>326.0198119367936</v>
       </c>
       <c r="R11" t="n">
-        <v>326.0198119367946</v>
+        <v>326.0198119367936</v>
       </c>
       <c r="S11" t="n">
-        <v>326.0198119367946</v>
+        <v>326.0198119367936</v>
       </c>
       <c r="T11" t="n">
-        <v>326.0198119367946</v>
+        <v>243.6915765992194</v>
       </c>
       <c r="U11" t="n">
-        <v>326.0198119367946</v>
+        <v>161.3633412616453</v>
       </c>
       <c r="V11" t="n">
-        <v>326.0198119367946</v>
+        <v>161.3633412616453</v>
       </c>
       <c r="W11" t="n">
-        <v>326.0198119367946</v>
+        <v>161.3633412616453</v>
       </c>
       <c r="X11" t="n">
-        <v>326.0198119367946</v>
+        <v>161.3633412616453</v>
       </c>
       <c r="Y11" t="n">
-        <v>326.0198119367946</v>
+        <v>161.3633412616453</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>64.56000984755264</v>
+        <v>6.520396238735872</v>
       </c>
       <c r="C12" t="n">
-        <v>64.56000984755264</v>
+        <v>6.520396238735872</v>
       </c>
       <c r="D12" t="n">
-        <v>64.56000984755264</v>
+        <v>6.520396238735872</v>
       </c>
       <c r="E12" t="n">
-        <v>64.56000984755264</v>
+        <v>6.520396238735872</v>
       </c>
       <c r="F12" t="n">
-        <v>64.56000984755264</v>
+        <v>6.520396238735872</v>
       </c>
       <c r="G12" t="n">
-        <v>64.56000984755264</v>
+        <v>6.520396238735872</v>
       </c>
       <c r="H12" t="n">
-        <v>64.56000984755264</v>
+        <v>6.520396238735872</v>
       </c>
       <c r="I12" t="n">
-        <v>64.56000984755264</v>
+        <v>6.520396238735872</v>
       </c>
       <c r="J12" t="n">
-        <v>6.520396238735891</v>
+        <v>6.520396238735872</v>
       </c>
       <c r="K12" t="n">
-        <v>6.520396238735891</v>
+        <v>6.520396238735872</v>
       </c>
       <c r="L12" t="n">
-        <v>87.21029969309254</v>
+        <v>87.21029969309228</v>
       </c>
       <c r="M12" t="n">
-        <v>167.9002031474492</v>
+        <v>167.9002031474487</v>
       </c>
       <c r="N12" t="n">
-        <v>247.4202213874696</v>
+        <v>237.3395388025795</v>
       </c>
       <c r="O12" t="n">
-        <v>247.4202213874696</v>
+        <v>318.0294422569359</v>
       </c>
       <c r="P12" t="n">
-        <v>326.0198119367946</v>
+        <v>326.0198119367936</v>
       </c>
       <c r="Q12" t="n">
-        <v>326.0198119367946</v>
+        <v>326.0198119367936</v>
       </c>
       <c r="R12" t="n">
-        <v>243.6915765992202</v>
+        <v>326.0198119367936</v>
       </c>
       <c r="S12" t="n">
-        <v>161.3633412616458</v>
+        <v>326.0198119367936</v>
       </c>
       <c r="T12" t="n">
-        <v>79.03510592407143</v>
+        <v>326.0198119367936</v>
       </c>
       <c r="U12" t="n">
-        <v>64.56000984755264</v>
+        <v>243.6915765992194</v>
       </c>
       <c r="V12" t="n">
-        <v>64.56000984755264</v>
+        <v>161.3633412616453</v>
       </c>
       <c r="W12" t="n">
-        <v>64.56000984755264</v>
+        <v>79.03510592407116</v>
       </c>
       <c r="X12" t="n">
-        <v>64.56000984755264</v>
+        <v>79.03510592407116</v>
       </c>
       <c r="Y12" t="n">
-        <v>64.56000984755264</v>
+        <v>6.520396238735872</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.520396238735891</v>
+        <v>6.520396238735872</v>
       </c>
       <c r="C13" t="n">
-        <v>6.520396238735891</v>
+        <v>6.520396238735872</v>
       </c>
       <c r="D13" t="n">
-        <v>6.520396238735891</v>
+        <v>6.520396238735872</v>
       </c>
       <c r="E13" t="n">
-        <v>6.520396238735891</v>
+        <v>6.520396238735872</v>
       </c>
       <c r="F13" t="n">
-        <v>6.520396238735891</v>
+        <v>6.520396238735872</v>
       </c>
       <c r="G13" t="n">
-        <v>6.520396238735891</v>
+        <v>6.520396238735872</v>
       </c>
       <c r="H13" t="n">
-        <v>6.520396238735891</v>
+        <v>6.520396238735872</v>
       </c>
       <c r="I13" t="n">
-        <v>6.520396238735891</v>
+        <v>6.520396238735872</v>
       </c>
       <c r="J13" t="n">
-        <v>6.520396238735891</v>
+        <v>6.520396238735872</v>
       </c>
       <c r="K13" t="n">
-        <v>6.520396238735891</v>
+        <v>6.520396238735872</v>
       </c>
       <c r="L13" t="n">
-        <v>6.520396238735891</v>
+        <v>6.520396238735872</v>
       </c>
       <c r="M13" t="n">
-        <v>6.520396238735891</v>
+        <v>6.520396238735872</v>
       </c>
       <c r="N13" t="n">
-        <v>6.520396238735891</v>
+        <v>6.520396238735872</v>
       </c>
       <c r="O13" t="n">
-        <v>6.520396238735891</v>
+        <v>6.520396238735872</v>
       </c>
       <c r="P13" t="n">
-        <v>6.520396238735891</v>
+        <v>6.520396238735872</v>
       </c>
       <c r="Q13" t="n">
-        <v>6.520396238735891</v>
+        <v>6.520396238735872</v>
       </c>
       <c r="R13" t="n">
-        <v>6.520396238735891</v>
+        <v>6.520396238735872</v>
       </c>
       <c r="S13" t="n">
-        <v>6.520396238735891</v>
+        <v>6.520396238735872</v>
       </c>
       <c r="T13" t="n">
-        <v>6.520396238735891</v>
+        <v>6.520396238735872</v>
       </c>
       <c r="U13" t="n">
-        <v>6.520396238735891</v>
+        <v>6.520396238735872</v>
       </c>
       <c r="V13" t="n">
-        <v>6.520396238735891</v>
+        <v>6.520396238735872</v>
       </c>
       <c r="W13" t="n">
-        <v>6.520396238735891</v>
+        <v>6.520396238735872</v>
       </c>
       <c r="X13" t="n">
-        <v>6.520396238735891</v>
+        <v>6.520396238735872</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.520396238735891</v>
+        <v>6.520396238735872</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>326.0198119367946</v>
+        <v>161.3633412616458</v>
       </c>
       <c r="C14" t="n">
-        <v>326.0198119367946</v>
+        <v>88.84863157631028</v>
       </c>
       <c r="D14" t="n">
-        <v>326.0198119367946</v>
+        <v>6.520396238735891</v>
       </c>
       <c r="E14" t="n">
-        <v>326.0198119367946</v>
+        <v>6.520396238735891</v>
       </c>
       <c r="F14" t="n">
-        <v>314.9979477197385</v>
+        <v>6.520396238735891</v>
       </c>
       <c r="G14" t="n">
-        <v>232.6697123821641</v>
+        <v>6.520396238735891</v>
       </c>
       <c r="H14" t="n">
-        <v>150.3414770445897</v>
+        <v>6.520396238735891</v>
       </c>
       <c r="I14" t="n">
-        <v>68.01324170701534</v>
+        <v>6.520396238735891</v>
       </c>
       <c r="J14" t="n">
         <v>6.520396238735891</v>
       </c>
       <c r="K14" t="n">
-        <v>8.599299068845568</v>
+        <v>8.599299068845454</v>
       </c>
       <c r="L14" t="n">
         <v>69.14465365390939</v>
@@ -5311,19 +5311,19 @@
         <v>326.0198119367946</v>
       </c>
       <c r="U14" t="n">
-        <v>326.0198119367946</v>
+        <v>243.6915765992202</v>
       </c>
       <c r="V14" t="n">
-        <v>326.0198119367946</v>
+        <v>161.3633412616458</v>
       </c>
       <c r="W14" t="n">
-        <v>326.0198119367946</v>
+        <v>161.3633412616458</v>
       </c>
       <c r="X14" t="n">
-        <v>326.0198119367946</v>
+        <v>161.3633412616458</v>
       </c>
       <c r="Y14" t="n">
-        <v>326.0198119367946</v>
+        <v>161.3633412616458</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>64.56000984755264</v>
+        <v>57.41740469808472</v>
       </c>
       <c r="C15" t="n">
-        <v>64.56000984755264</v>
+        <v>57.41740469808472</v>
       </c>
       <c r="D15" t="n">
-        <v>64.56000984755264</v>
+        <v>57.41740469808472</v>
       </c>
       <c r="E15" t="n">
-        <v>64.56000984755264</v>
+        <v>57.41740469808472</v>
       </c>
       <c r="F15" t="n">
-        <v>64.56000984755264</v>
+        <v>57.41740469808472</v>
       </c>
       <c r="G15" t="n">
-        <v>64.56000984755264</v>
+        <v>6.520396238735891</v>
       </c>
       <c r="H15" t="n">
-        <v>64.56000984755264</v>
+        <v>6.520396238735891</v>
       </c>
       <c r="I15" t="n">
-        <v>64.56000984755264</v>
+        <v>6.520396238735891</v>
       </c>
       <c r="J15" t="n">
         <v>6.520396238735891</v>
@@ -5366,7 +5366,7 @@
         <v>6.520396238735891</v>
       </c>
       <c r="M15" t="n">
-        <v>87.21029969309254</v>
+        <v>86.0404144787563</v>
       </c>
       <c r="N15" t="n">
         <v>166.730317933113</v>
@@ -5381,28 +5381,28 @@
         <v>304.4021107108078</v>
       </c>
       <c r="R15" t="n">
+        <v>304.4021107108078</v>
+      </c>
+      <c r="S15" t="n">
+        <v>304.4021107108078</v>
+      </c>
+      <c r="T15" t="n">
+        <v>304.4021107108078</v>
+      </c>
+      <c r="U15" t="n">
         <v>222.0738753732335</v>
       </c>
-      <c r="S15" t="n">
+      <c r="V15" t="n">
         <v>139.7456400356591</v>
       </c>
-      <c r="T15" t="n">
-        <v>64.56000984755264</v>
-      </c>
-      <c r="U15" t="n">
-        <v>64.56000984755264</v>
-      </c>
-      <c r="V15" t="n">
-        <v>64.56000984755264</v>
-      </c>
       <c r="W15" t="n">
-        <v>64.56000984755264</v>
+        <v>57.41740469808472</v>
       </c>
       <c r="X15" t="n">
-        <v>64.56000984755264</v>
+        <v>57.41740469808472</v>
       </c>
       <c r="Y15" t="n">
-        <v>64.56000984755264</v>
+        <v>57.41740469808472</v>
       </c>
     </row>
     <row r="16">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>386.5269428525317</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="C17" t="n">
-        <v>386.5269428525317</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="D17" t="n">
-        <v>386.5269428525317</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="E17" t="n">
-        <v>386.5269428525317</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="F17" t="n">
-        <v>386.5269428525317</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="G17" t="n">
-        <v>274.5296230216076</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="H17" t="n">
+        <v>8.870187730609194</v>
+      </c>
+      <c r="I17" t="n">
+        <v>8.870187730609194</v>
+      </c>
+      <c r="J17" t="n">
+        <v>8.870187730609194</v>
+      </c>
+      <c r="K17" t="n">
+        <v>10.94909056071871</v>
+      </c>
+      <c r="L17" t="n">
+        <v>71.49444514578258</v>
+      </c>
+      <c r="M17" t="n">
+        <v>181.2630183120713</v>
+      </c>
+      <c r="N17" t="n">
+        <v>291.0315914783601</v>
+      </c>
+      <c r="O17" t="n">
+        <v>370.222299115154</v>
+      </c>
+      <c r="P17" t="n">
+        <v>386.5269428525319</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>386.5269428525319</v>
+      </c>
+      <c r="R17" t="n">
+        <v>386.5269428525319</v>
+      </c>
+      <c r="S17" t="n">
+        <v>274.5296230216077</v>
+      </c>
+      <c r="T17" t="n">
+        <v>274.5296230216077</v>
+      </c>
+      <c r="U17" t="n">
         <v>162.5323031906835</v>
       </c>
-      <c r="I17" t="n">
+      <c r="V17" t="n">
         <v>50.53498335975934</v>
       </c>
-      <c r="J17" t="n">
-        <v>8.870187730609189</v>
-      </c>
-      <c r="K17" t="n">
-        <v>10.94909056071867</v>
-      </c>
-      <c r="L17" t="n">
-        <v>71.49444514578254</v>
-      </c>
-      <c r="M17" t="n">
-        <v>181.2630183120712</v>
-      </c>
-      <c r="N17" t="n">
-        <v>291.0315914783599</v>
-      </c>
-      <c r="O17" t="n">
-        <v>370.2222991151539</v>
-      </c>
-      <c r="P17" t="n">
-        <v>386.5269428525317</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>386.5269428525317</v>
-      </c>
-      <c r="R17" t="n">
-        <v>386.5269428525317</v>
-      </c>
-      <c r="S17" t="n">
-        <v>386.5269428525317</v>
-      </c>
-      <c r="T17" t="n">
-        <v>386.5269428525317</v>
-      </c>
-      <c r="U17" t="n">
-        <v>386.5269428525317</v>
-      </c>
-      <c r="V17" t="n">
-        <v>386.5269428525317</v>
-      </c>
       <c r="W17" t="n">
-        <v>386.5269428525317</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="X17" t="n">
-        <v>386.5269428525317</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.5269428525317</v>
+        <v>8.870187730609194</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>230.1655392901396</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="C18" t="n">
-        <v>230.1655392901396</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="D18" t="n">
-        <v>230.1655392901396</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="E18" t="n">
-        <v>230.1655392901396</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="F18" t="n">
-        <v>230.1655392901396</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="G18" t="n">
-        <v>230.1655392901396</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="H18" t="n">
-        <v>118.1682194592155</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="I18" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="J18" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="K18" t="n">
-        <v>8.870187730609189</v>
+        <v>38.54789858808562</v>
       </c>
       <c r="L18" t="n">
-        <v>35.60407648226835</v>
+        <v>148.3164717543744</v>
       </c>
       <c r="M18" t="n">
-        <v>145.3726496485571</v>
+        <v>255.1412228148459</v>
       </c>
       <c r="N18" t="n">
-        <v>255.1412228148458</v>
+        <v>364.9097959811347</v>
       </c>
       <c r="O18" t="n">
-        <v>364.9097959811345</v>
+        <v>364.9097959811347</v>
       </c>
       <c r="P18" t="n">
-        <v>443.5093865304594</v>
+        <v>443.5093865304597</v>
       </c>
       <c r="Q18" t="n">
-        <v>443.5093865304594</v>
+        <v>421.891685304473</v>
       </c>
       <c r="R18" t="n">
-        <v>342.1628591210638</v>
+        <v>421.891685304473</v>
       </c>
       <c r="S18" t="n">
-        <v>230.1655392901396</v>
+        <v>421.891685304473</v>
       </c>
       <c r="T18" t="n">
-        <v>230.1655392901396</v>
+        <v>309.8943654735488</v>
       </c>
       <c r="U18" t="n">
-        <v>230.1655392901396</v>
+        <v>197.8970456426246</v>
       </c>
       <c r="V18" t="n">
-        <v>230.1655392901396</v>
+        <v>85.89972581170042</v>
       </c>
       <c r="W18" t="n">
-        <v>230.1655392901396</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="X18" t="n">
-        <v>230.1655392901396</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="Y18" t="n">
-        <v>230.1655392901396</v>
+        <v>8.870187730609194</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="C19" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="D19" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="E19" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="F19" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="G19" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="H19" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="I19" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="J19" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="K19" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="L19" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="M19" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="N19" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="O19" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="P19" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="Q19" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="R19" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="S19" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="T19" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="U19" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="V19" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="W19" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="X19" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>162.5323031906835</v>
+        <v>120.8675075615334</v>
       </c>
       <c r="C20" t="n">
-        <v>162.5323031906835</v>
+        <v>120.8675075615334</v>
       </c>
       <c r="D20" t="n">
-        <v>162.5323031906835</v>
+        <v>120.8675075615334</v>
       </c>
       <c r="E20" t="n">
-        <v>162.5323031906835</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="F20" t="n">
-        <v>162.5323031906835</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="G20" t="n">
-        <v>162.5323031906835</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="H20" t="n">
-        <v>120.8675075615333</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="I20" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="J20" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="K20" t="n">
-        <v>10.94909056071867</v>
+        <v>10.94909056071871</v>
       </c>
       <c r="L20" t="n">
-        <v>71.49444514578254</v>
+        <v>71.49444514578258</v>
       </c>
       <c r="M20" t="n">
-        <v>181.2630183120712</v>
+        <v>181.2630183120713</v>
       </c>
       <c r="N20" t="n">
-        <v>291.0315914783599</v>
+        <v>291.0315914783601</v>
       </c>
       <c r="O20" t="n">
-        <v>370.2222991151539</v>
+        <v>370.222299115154</v>
       </c>
       <c r="P20" t="n">
-        <v>386.5269428525317</v>
+        <v>386.5269428525319</v>
       </c>
       <c r="Q20" t="n">
-        <v>386.5269428525317</v>
+        <v>319.430445660998</v>
       </c>
       <c r="R20" t="n">
-        <v>386.5269428525317</v>
+        <v>207.4331258300738</v>
       </c>
       <c r="S20" t="n">
-        <v>386.5269428525317</v>
+        <v>207.4331258300738</v>
       </c>
       <c r="T20" t="n">
-        <v>386.5269428525317</v>
+        <v>207.4331258300738</v>
       </c>
       <c r="U20" t="n">
-        <v>274.5296230216076</v>
+        <v>207.4331258300738</v>
       </c>
       <c r="V20" t="n">
-        <v>162.5323031906835</v>
+        <v>207.4331258300738</v>
       </c>
       <c r="W20" t="n">
-        <v>162.5323031906835</v>
+        <v>207.4331258300738</v>
       </c>
       <c r="X20" t="n">
-        <v>162.5323031906835</v>
+        <v>207.4331258300738</v>
       </c>
       <c r="Y20" t="n">
-        <v>162.5323031906835</v>
+        <v>120.8675075615334</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>443.5093865304594</v>
+        <v>197.8970456426246</v>
       </c>
       <c r="C21" t="n">
-        <v>443.5093865304594</v>
+        <v>197.8970456426246</v>
       </c>
       <c r="D21" t="n">
-        <v>443.5093865304594</v>
+        <v>197.8970456426246</v>
       </c>
       <c r="E21" t="n">
-        <v>443.5093865304594</v>
+        <v>85.89972581170042</v>
       </c>
       <c r="F21" t="n">
-        <v>342.1628591210638</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="G21" t="n">
-        <v>230.1655392901396</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="H21" t="n">
-        <v>118.1682194592155</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="I21" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="J21" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="K21" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="L21" t="n">
-        <v>118.6387608968979</v>
+        <v>35.60407648226841</v>
       </c>
       <c r="M21" t="n">
-        <v>228.4073340631866</v>
+        <v>145.3726496485572</v>
       </c>
       <c r="N21" t="n">
-        <v>338.1759072294753</v>
+        <v>255.1412228148459</v>
       </c>
       <c r="O21" t="n">
-        <v>364.9097959811345</v>
+        <v>364.9097959811347</v>
       </c>
       <c r="P21" t="n">
-        <v>443.5093865304594</v>
+        <v>443.5093865304597</v>
       </c>
       <c r="Q21" t="n">
-        <v>443.5093865304594</v>
+        <v>421.891685304473</v>
       </c>
       <c r="R21" t="n">
-        <v>443.5093865304594</v>
+        <v>421.891685304473</v>
       </c>
       <c r="S21" t="n">
-        <v>443.5093865304594</v>
+        <v>309.8943654735488</v>
       </c>
       <c r="T21" t="n">
-        <v>443.5093865304594</v>
+        <v>309.8943654735488</v>
       </c>
       <c r="U21" t="n">
-        <v>443.5093865304594</v>
+        <v>309.8943654735488</v>
       </c>
       <c r="V21" t="n">
-        <v>443.5093865304594</v>
+        <v>309.8943654735488</v>
       </c>
       <c r="W21" t="n">
-        <v>443.5093865304594</v>
+        <v>309.8943654735488</v>
       </c>
       <c r="X21" t="n">
-        <v>443.5093865304594</v>
+        <v>309.8943654735488</v>
       </c>
       <c r="Y21" t="n">
-        <v>443.5093865304594</v>
+        <v>309.8943654735488</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="C22" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="D22" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="E22" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="F22" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="G22" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="H22" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="I22" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="J22" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="K22" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="L22" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="M22" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="N22" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="O22" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="P22" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="Q22" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="R22" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="S22" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="T22" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="U22" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="V22" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="W22" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="X22" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>274.7425945146978</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="C23" t="n">
-        <v>274.7425945146978</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="D23" t="n">
-        <v>159.1538498424557</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="E23" t="n">
-        <v>159.1538498424557</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="F23" t="n">
-        <v>159.1538498424557</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="G23" t="n">
-        <v>159.1538498424557</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="H23" t="n">
-        <v>159.1538498424557</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="I23" t="n">
-        <v>43.56510517021366</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="J23" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="K23" t="n">
-        <v>11.23353140815105</v>
+        <v>11.23353140815108</v>
       </c>
       <c r="L23" t="n">
-        <v>71.77888599321493</v>
+        <v>71.77888599321496</v>
       </c>
       <c r="M23" t="n">
-        <v>181.5474591595036</v>
+        <v>181.5474591595037</v>
       </c>
       <c r="N23" t="n">
-        <v>294.8359878127681</v>
+        <v>294.8359878127682</v>
       </c>
       <c r="O23" t="n">
-        <v>374.026695449562</v>
+        <v>374.0266954495621</v>
       </c>
       <c r="P23" t="n">
-        <v>390.3313391869398</v>
+        <v>390.3313391869399</v>
       </c>
       <c r="Q23" t="n">
-        <v>390.3313391869398</v>
+        <v>355.9208625947679</v>
       </c>
       <c r="R23" t="n">
-        <v>390.3313391869398</v>
+        <v>240.3321179225258</v>
       </c>
       <c r="S23" t="n">
-        <v>390.3313391869398</v>
+        <v>240.3321179225258</v>
       </c>
       <c r="T23" t="n">
-        <v>390.3313391869398</v>
+        <v>240.3321179225258</v>
       </c>
       <c r="U23" t="n">
-        <v>390.3313391869398</v>
+        <v>124.7433732502837</v>
       </c>
       <c r="V23" t="n">
-        <v>274.7425945146978</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="W23" t="n">
-        <v>274.7425945146978</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="X23" t="n">
-        <v>274.7425945146978</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="Y23" t="n">
-        <v>274.7425945146978</v>
+        <v>9.154628578041574</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>240.3321179225257</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="C24" t="n">
-        <v>240.3321179225257</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="D24" t="n">
-        <v>124.7433732502836</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="E24" t="n">
-        <v>124.7433732502836</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="F24" t="n">
-        <v>124.7433732502836</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="G24" t="n">
-        <v>124.7433732502836</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="H24" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="I24" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="J24" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="K24" t="n">
-        <v>38.83233943551799</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="L24" t="n">
-        <v>150.4056829140382</v>
+        <v>120.7279720565618</v>
       </c>
       <c r="M24" t="n">
-        <v>152.5547810462247</v>
+        <v>234.0165007098263</v>
       </c>
       <c r="N24" t="n">
-        <v>265.8433096994891</v>
+        <v>347.3050293630907</v>
       </c>
       <c r="O24" t="n">
-        <v>379.1318383527536</v>
+        <v>379.1318383527538</v>
       </c>
       <c r="P24" t="n">
-        <v>457.7314289020785</v>
+        <v>457.7314289020787</v>
       </c>
       <c r="Q24" t="n">
-        <v>436.1137276760918</v>
+        <v>457.7314289020787</v>
       </c>
       <c r="R24" t="n">
-        <v>436.1137276760918</v>
+        <v>457.7314289020787</v>
       </c>
       <c r="S24" t="n">
-        <v>436.1137276760918</v>
+        <v>457.7314289020787</v>
       </c>
       <c r="T24" t="n">
-        <v>436.1137276760918</v>
+        <v>342.1426842298366</v>
       </c>
       <c r="U24" t="n">
-        <v>436.1137276760918</v>
+        <v>226.5539395575945</v>
       </c>
       <c r="V24" t="n">
-        <v>436.1137276760918</v>
+        <v>110.9651948853524</v>
       </c>
       <c r="W24" t="n">
-        <v>436.1137276760918</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="X24" t="n">
-        <v>436.1137276760918</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="Y24" t="n">
-        <v>355.9208625947678</v>
+        <v>9.154628578041574</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="C25" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="D25" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="E25" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="F25" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="G25" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="H25" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="I25" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="J25" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="K25" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="L25" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="M25" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="N25" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="O25" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="P25" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="R25" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="S25" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="T25" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="U25" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="V25" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="W25" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="X25" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>390.3313391869398</v>
+        <v>240.3321179225258</v>
       </c>
       <c r="C26" t="n">
-        <v>390.3313391869398</v>
+        <v>240.3321179225258</v>
       </c>
       <c r="D26" t="n">
-        <v>390.3313391869398</v>
+        <v>124.7433732502837</v>
       </c>
       <c r="E26" t="n">
-        <v>390.3313391869398</v>
+        <v>124.7433732502837</v>
       </c>
       <c r="F26" t="n">
-        <v>355.9208625947678</v>
+        <v>124.7433732502837</v>
       </c>
       <c r="G26" t="n">
-        <v>240.3321179225257</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="H26" t="n">
-        <v>124.7433732502836</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="I26" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="J26" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="K26" t="n">
-        <v>11.23353140815105</v>
+        <v>11.23353140815108</v>
       </c>
       <c r="L26" t="n">
-        <v>71.77888599321493</v>
+        <v>71.77888599321496</v>
       </c>
       <c r="M26" t="n">
-        <v>181.5474591595036</v>
+        <v>181.5474591595037</v>
       </c>
       <c r="N26" t="n">
-        <v>294.8359878127681</v>
+        <v>294.8359878127682</v>
       </c>
       <c r="O26" t="n">
-        <v>374.026695449562</v>
+        <v>374.0266954495621</v>
       </c>
       <c r="P26" t="n">
-        <v>390.3313391869398</v>
+        <v>390.3313391869399</v>
       </c>
       <c r="Q26" t="n">
-        <v>390.3313391869398</v>
+        <v>390.3313391869399</v>
       </c>
       <c r="R26" t="n">
-        <v>390.3313391869398</v>
+        <v>390.3313391869399</v>
       </c>
       <c r="S26" t="n">
-        <v>390.3313391869398</v>
+        <v>390.3313391869399</v>
       </c>
       <c r="T26" t="n">
-        <v>390.3313391869398</v>
+        <v>390.3313391869399</v>
       </c>
       <c r="U26" t="n">
-        <v>390.3313391869398</v>
+        <v>355.9208625947679</v>
       </c>
       <c r="V26" t="n">
-        <v>390.3313391869398</v>
+        <v>355.9208625947679</v>
       </c>
       <c r="W26" t="n">
-        <v>390.3313391869398</v>
+        <v>240.3321179225258</v>
       </c>
       <c r="X26" t="n">
-        <v>390.3313391869398</v>
+        <v>240.3321179225258</v>
       </c>
       <c r="Y26" t="n">
-        <v>390.3313391869398</v>
+        <v>240.3321179225258</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>124.7433732502836</v>
+        <v>124.7433732502837</v>
       </c>
       <c r="C27" t="n">
-        <v>124.7433732502836</v>
+        <v>124.7433732502837</v>
       </c>
       <c r="D27" t="n">
-        <v>124.7433732502836</v>
+        <v>124.7433732502837</v>
       </c>
       <c r="E27" t="n">
-        <v>9.154628578041571</v>
+        <v>124.7433732502837</v>
       </c>
       <c r="F27" t="n">
-        <v>9.154628578041571</v>
+        <v>124.7433732502837</v>
       </c>
       <c r="G27" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="H27" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="I27" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="J27" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="K27" t="n">
         <v>38.83233943551799</v>
       </c>
       <c r="L27" t="n">
-        <v>121.527805475241</v>
+        <v>39.26625239296033</v>
       </c>
       <c r="M27" t="n">
-        <v>234.8163341285054</v>
+        <v>152.5547810462248</v>
       </c>
       <c r="N27" t="n">
-        <v>348.1048627817698</v>
+        <v>265.8433096994893</v>
       </c>
       <c r="O27" t="n">
-        <v>379.1318383527536</v>
+        <v>379.1318383527538</v>
       </c>
       <c r="P27" t="n">
-        <v>457.7314289020785</v>
+        <v>457.7314289020787</v>
       </c>
       <c r="Q27" t="n">
-        <v>457.7314289020785</v>
+        <v>436.113727676092</v>
       </c>
       <c r="R27" t="n">
-        <v>457.7314289020785</v>
+        <v>436.113727676092</v>
       </c>
       <c r="S27" t="n">
-        <v>342.1426842298364</v>
+        <v>436.113727676092</v>
       </c>
       <c r="T27" t="n">
-        <v>342.1426842298364</v>
+        <v>320.5249830038499</v>
       </c>
       <c r="U27" t="n">
-        <v>342.1426842298364</v>
+        <v>320.5249830038499</v>
       </c>
       <c r="V27" t="n">
-        <v>342.1426842298364</v>
+        <v>320.5249830038499</v>
       </c>
       <c r="W27" t="n">
-        <v>240.3321179225257</v>
+        <v>320.5249830038499</v>
       </c>
       <c r="X27" t="n">
-        <v>124.7433732502836</v>
+        <v>320.5249830038499</v>
       </c>
       <c r="Y27" t="n">
-        <v>124.7433732502836</v>
+        <v>204.9362383316078</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="C28" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="D28" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="E28" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="F28" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="G28" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="H28" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="I28" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="J28" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="K28" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="L28" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="M28" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="N28" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="O28" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="P28" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="Q28" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="R28" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="S28" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="T28" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="U28" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="V28" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="W28" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="X28" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>9.154628578041574</v>
+      </c>
+      <c r="C29" t="n">
+        <v>9.154628578041574</v>
+      </c>
+      <c r="D29" t="n">
+        <v>9.154628578041574</v>
+      </c>
+      <c r="E29" t="n">
+        <v>9.154628578041574</v>
+      </c>
+      <c r="F29" t="n">
+        <v>9.154628578041574</v>
+      </c>
+      <c r="G29" t="n">
+        <v>9.154628578041574</v>
+      </c>
+      <c r="H29" t="n">
+        <v>9.154628578041574</v>
+      </c>
+      <c r="I29" t="n">
+        <v>9.154628578041574</v>
+      </c>
+      <c r="J29" t="n">
+        <v>9.154628578041574</v>
+      </c>
+      <c r="K29" t="n">
+        <v>11.23353140815108</v>
+      </c>
+      <c r="L29" t="n">
+        <v>71.77888599321496</v>
+      </c>
+      <c r="M29" t="n">
+        <v>181.5474591595037</v>
+      </c>
+      <c r="N29" t="n">
+        <v>294.8359878127682</v>
+      </c>
+      <c r="O29" t="n">
+        <v>374.0266954495621</v>
+      </c>
+      <c r="P29" t="n">
+        <v>390.3313391869399</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>390.3313391869399</v>
+      </c>
+      <c r="R29" t="n">
+        <v>274.7425945146978</v>
+      </c>
+      <c r="S29" t="n">
+        <v>274.7425945146978</v>
+      </c>
+      <c r="T29" t="n">
+        <v>274.7425945146978</v>
+      </c>
+      <c r="U29" t="n">
         <v>159.1538498424557</v>
       </c>
-      <c r="C29" t="n">
-        <v>43.56510517021366</v>
-      </c>
-      <c r="D29" t="n">
-        <v>9.154628578041571</v>
-      </c>
-      <c r="E29" t="n">
-        <v>9.154628578041571</v>
-      </c>
-      <c r="F29" t="n">
-        <v>9.154628578041571</v>
-      </c>
-      <c r="G29" t="n">
-        <v>9.154628578041571</v>
-      </c>
-      <c r="H29" t="n">
-        <v>9.154628578041571</v>
-      </c>
-      <c r="I29" t="n">
-        <v>9.154628578041571</v>
-      </c>
-      <c r="J29" t="n">
-        <v>9.154628578041571</v>
-      </c>
-      <c r="K29" t="n">
-        <v>11.23353140815105</v>
-      </c>
-      <c r="L29" t="n">
-        <v>71.77888599321493</v>
-      </c>
-      <c r="M29" t="n">
-        <v>181.5474591595036</v>
-      </c>
-      <c r="N29" t="n">
-        <v>294.8359878127681</v>
-      </c>
-      <c r="O29" t="n">
-        <v>374.026695449562</v>
-      </c>
-      <c r="P29" t="n">
-        <v>390.3313391869398</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>390.3313391869398</v>
-      </c>
-      <c r="R29" t="n">
-        <v>390.3313391869398</v>
-      </c>
-      <c r="S29" t="n">
-        <v>390.3313391869398</v>
-      </c>
-      <c r="T29" t="n">
-        <v>390.3313391869398</v>
-      </c>
-      <c r="U29" t="n">
-        <v>390.3313391869398</v>
-      </c>
       <c r="V29" t="n">
-        <v>390.3313391869398</v>
+        <v>124.7433732502837</v>
       </c>
       <c r="W29" t="n">
-        <v>390.3313391869398</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="X29" t="n">
-        <v>390.3313391869398</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="Y29" t="n">
-        <v>274.7425945146978</v>
+        <v>9.154628578041574</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>124.7433732502836</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="C30" t="n">
-        <v>124.7433732502836</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="D30" t="n">
-        <v>124.7433732502836</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="E30" t="n">
-        <v>124.7433732502836</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="F30" t="n">
-        <v>124.7433732502836</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="G30" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="H30" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="I30" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="J30" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="K30" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="L30" t="n">
         <v>120.7279720565618</v>
       </c>
       <c r="M30" t="n">
-        <v>196.4039740443582</v>
+        <v>196.4039740443584</v>
       </c>
       <c r="N30" t="n">
-        <v>265.8433096994891</v>
+        <v>265.8433096994893</v>
       </c>
       <c r="O30" t="n">
-        <v>379.1318383527536</v>
+        <v>379.1318383527538</v>
       </c>
       <c r="P30" t="n">
-        <v>457.7314289020785</v>
+        <v>457.7314289020787</v>
       </c>
       <c r="Q30" t="n">
-        <v>436.1137276760918</v>
+        <v>457.7314289020787</v>
       </c>
       <c r="R30" t="n">
-        <v>436.1137276760918</v>
+        <v>457.7314289020787</v>
       </c>
       <c r="S30" t="n">
-        <v>436.1137276760918</v>
+        <v>457.7314289020787</v>
       </c>
       <c r="T30" t="n">
-        <v>436.1137276760918</v>
+        <v>457.7314289020787</v>
       </c>
       <c r="U30" t="n">
-        <v>320.5249830038497</v>
+        <v>342.1426842298366</v>
       </c>
       <c r="V30" t="n">
-        <v>320.5249830038497</v>
+        <v>226.5539395575945</v>
       </c>
       <c r="W30" t="n">
-        <v>204.9362383316077</v>
+        <v>124.7433732502837</v>
       </c>
       <c r="X30" t="n">
-        <v>124.7433732502836</v>
+        <v>124.7433732502837</v>
       </c>
       <c r="Y30" t="n">
-        <v>124.7433732502836</v>
+        <v>9.154628578041574</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="C31" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="D31" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="E31" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="F31" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="G31" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="H31" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="I31" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="J31" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="K31" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="L31" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="M31" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="N31" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="O31" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="P31" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="Q31" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="R31" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="S31" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="T31" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="U31" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="V31" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="W31" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="X31" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="Y31" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
     </row>
     <row r="32">
@@ -6676,55 +6676,55 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>159.1538498424557</v>
+        <v>43.5651051702136</v>
       </c>
       <c r="C32" t="n">
-        <v>159.1538498424557</v>
+        <v>43.5651051702136</v>
       </c>
       <c r="D32" t="n">
-        <v>43.56510517021366</v>
+        <v>43.5651051702136</v>
       </c>
       <c r="E32" t="n">
-        <v>43.56510517021366</v>
+        <v>43.5651051702136</v>
       </c>
       <c r="F32" t="n">
-        <v>43.56510517021366</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="G32" t="n">
-        <v>43.56510517021366</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="H32" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="I32" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="J32" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="K32" t="n">
-        <v>11.23353140815105</v>
+        <v>11.23353140815108</v>
       </c>
       <c r="L32" t="n">
-        <v>71.77888599321493</v>
+        <v>71.77888599321496</v>
       </c>
       <c r="M32" t="n">
-        <v>181.5474591595036</v>
+        <v>181.5474591595037</v>
       </c>
       <c r="N32" t="n">
-        <v>294.8359878127681</v>
+        <v>294.8359878127682</v>
       </c>
       <c r="O32" t="n">
-        <v>374.026695449562</v>
+        <v>374.0266954495621</v>
       </c>
       <c r="P32" t="n">
-        <v>390.3313391869398</v>
+        <v>390.3313391869399</v>
       </c>
       <c r="Q32" t="n">
-        <v>390.3313391869398</v>
+        <v>390.3313391869399</v>
       </c>
       <c r="R32" t="n">
-        <v>390.3313391869398</v>
+        <v>390.3313391869399</v>
       </c>
       <c r="S32" t="n">
         <v>274.7425945146978</v>
@@ -6733,19 +6733,19 @@
         <v>274.7425945146978</v>
       </c>
       <c r="U32" t="n">
-        <v>274.7425945146978</v>
+        <v>159.1538498424557</v>
       </c>
       <c r="V32" t="n">
         <v>159.1538498424557</v>
       </c>
       <c r="W32" t="n">
-        <v>159.1538498424557</v>
+        <v>43.5651051702136</v>
       </c>
       <c r="X32" t="n">
-        <v>159.1538498424557</v>
+        <v>43.5651051702136</v>
       </c>
       <c r="Y32" t="n">
-        <v>159.1538498424557</v>
+        <v>43.5651051702136</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>110.9651948853523</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="C33" t="n">
-        <v>110.9651948853523</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="D33" t="n">
-        <v>110.9651948853523</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="E33" t="n">
-        <v>110.9651948853523</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="F33" t="n">
-        <v>110.9651948853523</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="G33" t="n">
-        <v>110.9651948853523</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="H33" t="n">
-        <v>110.9651948853523</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="I33" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="J33" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="K33" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="L33" t="n">
         <v>120.7279720565618</v>
       </c>
       <c r="M33" t="n">
-        <v>234.0165007098262</v>
+        <v>234.0165007098263</v>
       </c>
       <c r="N33" t="n">
-        <v>347.3050293630906</v>
+        <v>303.4558363649572</v>
       </c>
       <c r="O33" t="n">
-        <v>379.1318383527536</v>
+        <v>379.1318383527538</v>
       </c>
       <c r="P33" t="n">
-        <v>457.7314289020785</v>
+        <v>457.7314289020787</v>
       </c>
       <c r="Q33" t="n">
-        <v>457.7314289020785</v>
+        <v>457.7314289020787</v>
       </c>
       <c r="R33" t="n">
-        <v>457.7314289020785</v>
+        <v>457.7314289020787</v>
       </c>
       <c r="S33" t="n">
-        <v>457.7314289020785</v>
+        <v>457.7314289020787</v>
       </c>
       <c r="T33" t="n">
-        <v>342.1426842298364</v>
+        <v>342.1426842298366</v>
       </c>
       <c r="U33" t="n">
-        <v>226.5539395575944</v>
+        <v>226.5539395575945</v>
       </c>
       <c r="V33" t="n">
-        <v>226.5539395575944</v>
+        <v>110.9651948853524</v>
       </c>
       <c r="W33" t="n">
-        <v>226.5539395575944</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="X33" t="n">
-        <v>110.9651948853523</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="Y33" t="n">
-        <v>110.9651948853523</v>
+        <v>9.154628578041574</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="C34" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="D34" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="E34" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="F34" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="G34" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="H34" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="I34" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="J34" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="K34" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="L34" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="M34" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="N34" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="O34" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="P34" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="Q34" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="R34" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="S34" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="T34" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="U34" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="V34" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="W34" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="X34" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
       <c r="Y34" t="n">
-        <v>9.154628578041571</v>
+        <v>9.154628578041574</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>50.53498335975934</v>
+        <v>120.8675075615334</v>
       </c>
       <c r="C35" t="n">
-        <v>50.53498335975934</v>
+        <v>120.8675075615334</v>
       </c>
       <c r="D35" t="n">
-        <v>50.53498335975934</v>
+        <v>120.8675075615334</v>
       </c>
       <c r="E35" t="n">
-        <v>50.53498335975934</v>
+        <v>120.8675075615334</v>
       </c>
       <c r="F35" t="n">
-        <v>8.870187730609189</v>
+        <v>120.8675075615334</v>
       </c>
       <c r="G35" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="H35" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="I35" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="J35" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="K35" t="n">
-        <v>10.94909056071867</v>
+        <v>10.94909056071871</v>
       </c>
       <c r="L35" t="n">
-        <v>71.49444514578254</v>
+        <v>71.49444514578258</v>
       </c>
       <c r="M35" t="n">
-        <v>181.2630183120712</v>
+        <v>181.2630183120713</v>
       </c>
       <c r="N35" t="n">
-        <v>291.0315914783599</v>
+        <v>291.0315914783601</v>
       </c>
       <c r="O35" t="n">
-        <v>370.2222991151539</v>
+        <v>370.222299115154</v>
       </c>
       <c r="P35" t="n">
-        <v>386.5269428525317</v>
+        <v>386.5269428525319</v>
       </c>
       <c r="Q35" t="n">
-        <v>386.5269428525317</v>
+        <v>319.430445660998</v>
       </c>
       <c r="R35" t="n">
-        <v>386.5269428525317</v>
+        <v>207.4331258300738</v>
       </c>
       <c r="S35" t="n">
-        <v>386.5269428525317</v>
+        <v>120.8675075615334</v>
       </c>
       <c r="T35" t="n">
-        <v>386.5269428525317</v>
+        <v>120.8675075615334</v>
       </c>
       <c r="U35" t="n">
-        <v>386.5269428525317</v>
+        <v>120.8675075615334</v>
       </c>
       <c r="V35" t="n">
-        <v>386.5269428525317</v>
+        <v>120.8675075615334</v>
       </c>
       <c r="W35" t="n">
-        <v>274.5296230216076</v>
+        <v>120.8675075615334</v>
       </c>
       <c r="X35" t="n">
-        <v>162.5323031906835</v>
+        <v>120.8675075615334</v>
       </c>
       <c r="Y35" t="n">
-        <v>50.53498335975934</v>
+        <v>120.8675075615334</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="C36" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="D36" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="E36" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="F36" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="G36" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="H36" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="I36" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="J36" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="K36" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="L36" t="n">
-        <v>35.60407648226835</v>
+        <v>98.25307218937276</v>
       </c>
       <c r="M36" t="n">
-        <v>145.3726496485571</v>
+        <v>145.3726496485572</v>
       </c>
       <c r="N36" t="n">
-        <v>255.1412228148458</v>
+        <v>255.1412228148459</v>
       </c>
       <c r="O36" t="n">
-        <v>364.9097959811345</v>
+        <v>364.9097959811347</v>
       </c>
       <c r="P36" t="n">
-        <v>443.5093865304594</v>
+        <v>443.5093865304597</v>
       </c>
       <c r="Q36" t="n">
-        <v>443.5093865304594</v>
+        <v>443.5093865304597</v>
       </c>
       <c r="R36" t="n">
-        <v>443.5093865304594</v>
+        <v>443.5093865304597</v>
       </c>
       <c r="S36" t="n">
-        <v>331.5120666995354</v>
+        <v>443.5093865304597</v>
       </c>
       <c r="T36" t="n">
-        <v>219.5147468686112</v>
+        <v>443.5093865304597</v>
       </c>
       <c r="U36" t="n">
-        <v>219.5147468686112</v>
+        <v>344.8621472233817</v>
       </c>
       <c r="V36" t="n">
-        <v>120.8675075615333</v>
+        <v>232.8648273924575</v>
       </c>
       <c r="W36" t="n">
-        <v>120.8675075615333</v>
+        <v>120.8675075615334</v>
       </c>
       <c r="X36" t="n">
-        <v>120.8675075615333</v>
+        <v>120.8675075615334</v>
       </c>
       <c r="Y36" t="n">
-        <v>120.8675075615333</v>
+        <v>8.870187730609194</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="C37" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="D37" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="E37" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="F37" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="G37" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="H37" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="I37" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="J37" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="K37" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="L37" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="M37" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="N37" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="O37" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="P37" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="Q37" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="R37" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="S37" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="T37" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="U37" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="V37" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="W37" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="X37" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="Y37" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>50.53498335975934</v>
+        <v>274.5296230216077</v>
       </c>
       <c r="C38" t="n">
-        <v>8.870187730609189</v>
+        <v>274.5296230216077</v>
       </c>
       <c r="D38" t="n">
-        <v>8.870187730609189</v>
+        <v>274.5296230216077</v>
       </c>
       <c r="E38" t="n">
-        <v>8.870187730609189</v>
+        <v>232.8648273924575</v>
       </c>
       <c r="F38" t="n">
-        <v>8.870187730609189</v>
+        <v>120.8675075615334</v>
       </c>
       <c r="G38" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="H38" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="I38" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="J38" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="K38" t="n">
-        <v>10.94909056071867</v>
+        <v>10.94909056071871</v>
       </c>
       <c r="L38" t="n">
-        <v>71.49444514578254</v>
+        <v>71.49444514578258</v>
       </c>
       <c r="M38" t="n">
-        <v>181.2630183120712</v>
+        <v>181.2630183120713</v>
       </c>
       <c r="N38" t="n">
-        <v>291.0315914783599</v>
+        <v>291.0315914783601</v>
       </c>
       <c r="O38" t="n">
-        <v>370.2222991151539</v>
+        <v>370.222299115154</v>
       </c>
       <c r="P38" t="n">
-        <v>386.5269428525317</v>
+        <v>386.5269428525319</v>
       </c>
       <c r="Q38" t="n">
-        <v>386.5269428525317</v>
+        <v>386.5269428525319</v>
       </c>
       <c r="R38" t="n">
-        <v>274.5296230216076</v>
+        <v>386.5269428525319</v>
       </c>
       <c r="S38" t="n">
-        <v>162.5323031906835</v>
+        <v>386.5269428525319</v>
       </c>
       <c r="T38" t="n">
-        <v>162.5323031906835</v>
+        <v>386.5269428525319</v>
       </c>
       <c r="U38" t="n">
-        <v>162.5323031906835</v>
+        <v>274.5296230216077</v>
       </c>
       <c r="V38" t="n">
-        <v>162.5323031906835</v>
+        <v>274.5296230216077</v>
       </c>
       <c r="W38" t="n">
-        <v>162.5323031906835</v>
+        <v>274.5296230216077</v>
       </c>
       <c r="X38" t="n">
-        <v>50.53498335975934</v>
+        <v>274.5296230216077</v>
       </c>
       <c r="Y38" t="n">
-        <v>50.53498335975934</v>
+        <v>274.5296230216077</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>197.8970456426245</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="C39" t="n">
-        <v>85.89972581170042</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="D39" t="n">
-        <v>66.90980133942593</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="E39" t="n">
-        <v>66.90980133942593</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="F39" t="n">
-        <v>66.90980133942593</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="G39" t="n">
-        <v>66.90980133942593</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="H39" t="n">
-        <v>66.90980133942593</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="I39" t="n">
-        <v>66.90980133942593</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="J39" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="K39" t="n">
-        <v>38.54789858808561</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="L39" t="n">
-        <v>148.3164717543743</v>
+        <v>98.25307218937276</v>
       </c>
       <c r="M39" t="n">
-        <v>258.085044920663</v>
+        <v>145.3726496485572</v>
       </c>
       <c r="N39" t="n">
-        <v>364.9097959811345</v>
+        <v>255.1412228148459</v>
       </c>
       <c r="O39" t="n">
-        <v>364.9097959811345</v>
+        <v>364.9097959811347</v>
       </c>
       <c r="P39" t="n">
-        <v>443.5093865304594</v>
+        <v>443.5093865304597</v>
       </c>
       <c r="Q39" t="n">
-        <v>421.8916853044727</v>
+        <v>443.5093865304597</v>
       </c>
       <c r="R39" t="n">
-        <v>309.8943654735486</v>
+        <v>443.5093865304597</v>
       </c>
       <c r="S39" t="n">
-        <v>309.8943654735486</v>
+        <v>443.5093865304597</v>
       </c>
       <c r="T39" t="n">
-        <v>309.8943654735486</v>
+        <v>443.5093865304597</v>
       </c>
       <c r="U39" t="n">
-        <v>309.8943654735486</v>
+        <v>331.5120666995355</v>
       </c>
       <c r="V39" t="n">
-        <v>309.8943654735486</v>
+        <v>219.5147468686113</v>
       </c>
       <c r="W39" t="n">
-        <v>197.8970456426245</v>
+        <v>107.5174270376871</v>
       </c>
       <c r="X39" t="n">
-        <v>197.8970456426245</v>
+        <v>107.5174270376871</v>
       </c>
       <c r="Y39" t="n">
-        <v>197.8970456426245</v>
+        <v>8.870187730609194</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="C40" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="D40" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="E40" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="F40" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="G40" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="H40" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="I40" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="J40" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="K40" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="L40" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="M40" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="N40" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="O40" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="P40" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="Q40" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="R40" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="S40" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="T40" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="U40" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="V40" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="W40" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="X40" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
       <c r="Y40" t="n">
-        <v>8.870187730609189</v>
+        <v>8.870187730609194</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>11.93860873253729</v>
+        <v>68.01324170701531</v>
       </c>
       <c r="C41" t="n">
-        <v>6.520396238735891</v>
+        <v>68.01324170701531</v>
       </c>
       <c r="D41" t="n">
-        <v>6.520396238735891</v>
+        <v>68.01324170701531</v>
       </c>
       <c r="E41" t="n">
-        <v>6.520396238735891</v>
+        <v>68.01324170701531</v>
       </c>
       <c r="F41" t="n">
-        <v>6.520396238735891</v>
+        <v>68.01324170701531</v>
       </c>
       <c r="G41" t="n">
-        <v>6.520396238735891</v>
+        <v>68.01324170701531</v>
       </c>
       <c r="H41" t="n">
-        <v>6.520396238735891</v>
+        <v>68.01324170701531</v>
       </c>
       <c r="I41" t="n">
-        <v>6.520396238735891</v>
+        <v>68.01324170701531</v>
       </c>
       <c r="J41" t="n">
         <v>6.520396238735891</v>
       </c>
       <c r="K41" t="n">
-        <v>8.599299068845374</v>
+        <v>8.599299068845426</v>
       </c>
       <c r="L41" t="n">
-        <v>69.14465365390924</v>
+        <v>69.14465365390936</v>
       </c>
       <c r="M41" t="n">
-        <v>149.8345571082659</v>
+        <v>149.834557108266</v>
       </c>
       <c r="N41" t="n">
-        <v>230.5244605626226</v>
+        <v>230.5244605626227</v>
       </c>
       <c r="O41" t="n">
-        <v>309.7151681994165</v>
+        <v>309.7151681994167</v>
       </c>
       <c r="P41" t="n">
-        <v>326.0198119367943</v>
+        <v>326.0198119367946</v>
       </c>
       <c r="Q41" t="n">
-        <v>258.9233147452604</v>
+        <v>258.9233147452607</v>
       </c>
       <c r="R41" t="n">
-        <v>258.9233147452604</v>
+        <v>176.5950794076863</v>
       </c>
       <c r="S41" t="n">
-        <v>258.9233147452604</v>
+        <v>176.5950794076863</v>
       </c>
       <c r="T41" t="n">
-        <v>258.9233147452604</v>
+        <v>176.5950794076863</v>
       </c>
       <c r="U41" t="n">
-        <v>258.9233147452604</v>
+        <v>94.2668440701119</v>
       </c>
       <c r="V41" t="n">
-        <v>258.9233147452604</v>
+        <v>68.01324170701531</v>
       </c>
       <c r="W41" t="n">
-        <v>176.5950794076861</v>
+        <v>68.01324170701531</v>
       </c>
       <c r="X41" t="n">
-        <v>176.5950794076861</v>
+        <v>68.01324170701531</v>
       </c>
       <c r="Y41" t="n">
-        <v>94.26684407011167</v>
+        <v>68.01324170701531</v>
       </c>
     </row>
     <row r="42">
@@ -7496,16 +7496,16 @@
         <v>36.19810709621231</v>
       </c>
       <c r="L42" t="n">
-        <v>36.19810709621231</v>
+        <v>83.9501015737246</v>
       </c>
       <c r="M42" t="n">
-        <v>86.0404144787563</v>
+        <v>164.6400050280812</v>
       </c>
       <c r="N42" t="n">
-        <v>166.730317933113</v>
+        <v>245.3299084824379</v>
       </c>
       <c r="O42" t="n">
-        <v>247.4202213874696</v>
+        <v>326.0198119367946</v>
       </c>
       <c r="P42" t="n">
         <v>326.0198119367946</v>
@@ -7523,13 +7523,13 @@
         <v>326.0198119367946</v>
       </c>
       <c r="U42" t="n">
-        <v>326.0198119367946</v>
+        <v>253.505102251459</v>
       </c>
       <c r="V42" t="n">
-        <v>253.505102251459</v>
+        <v>171.1768669138847</v>
       </c>
       <c r="W42" t="n">
-        <v>171.1768669138847</v>
+        <v>88.84863157631028</v>
       </c>
       <c r="X42" t="n">
         <v>88.84863157631028</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>79.03510592407143</v>
+        <v>253.505102251459</v>
       </c>
       <c r="C44" t="n">
-        <v>79.03510592407143</v>
+        <v>171.1768669138847</v>
       </c>
       <c r="D44" t="n">
-        <v>79.03510592407143</v>
+        <v>171.1768669138847</v>
       </c>
       <c r="E44" t="n">
-        <v>79.03510592407143</v>
+        <v>171.1768669138847</v>
       </c>
       <c r="F44" t="n">
-        <v>6.520396238735891</v>
+        <v>88.84863157631028</v>
       </c>
       <c r="G44" t="n">
         <v>6.520396238735891</v>
@@ -7651,49 +7651,49 @@
         <v>6.520396238735891</v>
       </c>
       <c r="K44" t="n">
-        <v>8.599299068845426</v>
+        <v>8.599299068845401</v>
       </c>
       <c r="L44" t="n">
-        <v>69.14465365390924</v>
+        <v>69.14465365390927</v>
       </c>
       <c r="M44" t="n">
-        <v>149.834557108266</v>
+        <v>149.8345571082659</v>
       </c>
       <c r="N44" t="n">
-        <v>230.5244605626227</v>
+        <v>230.5244605626226</v>
       </c>
       <c r="O44" t="n">
-        <v>309.7151681994167</v>
+        <v>309.7151681994166</v>
       </c>
       <c r="P44" t="n">
-        <v>326.0198119367946</v>
+        <v>326.0198119367944</v>
       </c>
       <c r="Q44" t="n">
-        <v>326.0198119367946</v>
+        <v>326.0198119367944</v>
       </c>
       <c r="R44" t="n">
-        <v>326.0198119367946</v>
+        <v>253.505102251459</v>
       </c>
       <c r="S44" t="n">
-        <v>326.0198119367946</v>
+        <v>253.505102251459</v>
       </c>
       <c r="T44" t="n">
-        <v>326.0198119367946</v>
+        <v>253.505102251459</v>
       </c>
       <c r="U44" t="n">
-        <v>326.0198119367946</v>
+        <v>253.505102251459</v>
       </c>
       <c r="V44" t="n">
-        <v>243.6915765992202</v>
+        <v>253.505102251459</v>
       </c>
       <c r="W44" t="n">
-        <v>243.6915765992202</v>
+        <v>253.505102251459</v>
       </c>
       <c r="X44" t="n">
-        <v>243.6915765992202</v>
+        <v>253.505102251459</v>
       </c>
       <c r="Y44" t="n">
-        <v>161.3633412616458</v>
+        <v>253.505102251459</v>
       </c>
     </row>
     <row r="45">
@@ -7703,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>6.520396238735891</v>
+        <v>88.84863157631028</v>
       </c>
       <c r="C45" t="n">
-        <v>6.520396238735891</v>
+        <v>88.84863157631028</v>
       </c>
       <c r="D45" t="n">
-        <v>6.520396238735891</v>
+        <v>88.84863157631028</v>
       </c>
       <c r="E45" t="n">
         <v>6.520396238735891</v>
@@ -7748,31 +7748,31 @@
         <v>326.0198119367946</v>
       </c>
       <c r="Q45" t="n">
-        <v>304.4021107108078</v>
+        <v>326.0198119367946</v>
       </c>
       <c r="R45" t="n">
+        <v>326.0198119367946</v>
+      </c>
+      <c r="S45" t="n">
+        <v>326.0198119367946</v>
+      </c>
+      <c r="T45" t="n">
+        <v>326.0198119367946</v>
+      </c>
+      <c r="U45" t="n">
+        <v>326.0198119367946</v>
+      </c>
+      <c r="V45" t="n">
         <v>253.505102251459</v>
       </c>
-      <c r="S45" t="n">
-        <v>253.505102251459</v>
-      </c>
-      <c r="T45" t="n">
+      <c r="W45" t="n">
         <v>171.1768669138847</v>
       </c>
-      <c r="U45" t="n">
+      <c r="X45" t="n">
         <v>171.1768669138847</v>
       </c>
-      <c r="V45" t="n">
+      <c r="Y45" t="n">
         <v>88.84863157631028</v>
-      </c>
-      <c r="W45" t="n">
-        <v>88.84863157631028</v>
-      </c>
-      <c r="X45" t="n">
-        <v>88.84863157631028</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>6.520396238735891</v>
       </c>
     </row>
     <row r="46">
@@ -8066,13 +8066,13 @@
         <v>96.41848977889939</v>
       </c>
       <c r="M3" t="n">
-        <v>121.083316575</v>
+        <v>83.92045636931253</v>
       </c>
       <c r="N3" t="n">
         <v>64.85608296530633</v>
       </c>
       <c r="O3" t="n">
-        <v>102.4042030119497</v>
+        <v>92.15534270158891</v>
       </c>
       <c r="P3" t="n">
         <v>82.80031984638366</v>
@@ -8300,7 +8300,7 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L6" t="n">
-        <v>96.41848977889939</v>
+        <v>73.99276488738511</v>
       </c>
       <c r="M6" t="n">
         <v>121.083316575</v>
@@ -8540,13 +8540,13 @@
         <v>96.41848977889939</v>
       </c>
       <c r="M9" t="n">
-        <v>39.34781785249876</v>
+        <v>121.083316575</v>
       </c>
       <c r="N9" t="n">
-        <v>19.10373933697781</v>
+        <v>124.6290173293239</v>
       </c>
       <c r="O9" t="n">
-        <v>50.30088672752632</v>
+        <v>102.4042030119497</v>
       </c>
       <c r="P9" t="n">
         <v>82.80031984638366</v>
@@ -8701,7 +8701,7 @@
         <v>116.8735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>80.78229610579484</v>
+        <v>113.7102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>99.00804712831379</v>
@@ -8771,19 +8771,19 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>38.7834759086478</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L12" t="n">
-        <v>65.22309581509782</v>
+        <v>96.41848977889939</v>
       </c>
       <c r="M12" t="n">
-        <v>33.9094201971437</v>
+        <v>33.90942019714359</v>
       </c>
       <c r="N12" t="n">
-        <v>10.18250766150457</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>50.1645736195685</v>
       </c>
       <c r="P12" t="n">
         <v>82.80031984638366</v>
@@ -8935,10 +8935,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>87.50112505972021</v>
+        <v>116.8735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>80.78229610579484</v>
+        <v>113.7102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>99.00804712831379</v>
@@ -9017,10 +9017,10 @@
         <v>121.083316575</v>
       </c>
       <c r="N15" t="n">
-        <v>10.18250766150457</v>
+        <v>124.6290173293239</v>
       </c>
       <c r="O15" t="n">
-        <v>50.16457361956864</v>
+        <v>102.4042030119497</v>
       </c>
       <c r="P15" t="n">
         <v>82.80031984638366</v>
@@ -9175,7 +9175,7 @@
         <v>116.8735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>110.1546897542111</v>
+        <v>113.7102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>99.00804712831379</v>
@@ -9248,16 +9248,16 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L18" t="n">
-        <v>10.72207086287814</v>
+        <v>96.41848977889939</v>
       </c>
       <c r="M18" t="n">
-        <v>63.28181384555992</v>
+        <v>121.083316575</v>
       </c>
       <c r="N18" t="n">
-        <v>40.73660354662405</v>
+        <v>124.6290173293239</v>
       </c>
       <c r="O18" t="n">
-        <v>79.53696726798486</v>
+        <v>102.4042030119497</v>
       </c>
       <c r="P18" t="n">
         <v>82.80031984638366</v>
@@ -9412,7 +9412,7 @@
         <v>116.8735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>110.1546897542111</v>
+        <v>113.7102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>99.00804712831379</v>
@@ -9485,13 +9485,13 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L21" t="n">
-        <v>94.59548946351404</v>
+        <v>96.41848977889939</v>
       </c>
       <c r="M21" t="n">
-        <v>63.28181384555992</v>
+        <v>121.083316575</v>
       </c>
       <c r="N21" t="n">
-        <v>40.73660354662405</v>
+        <v>124.6290173293239</v>
       </c>
       <c r="O21" t="n">
         <v>102.4042030119497</v>
@@ -9725,13 +9725,13 @@
         <v>96.41848977889939</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>66.83732443846472</v>
       </c>
       <c r="N24" t="n">
-        <v>44.29211413952879</v>
+        <v>44.29211413952888</v>
       </c>
       <c r="O24" t="n">
-        <v>83.09247786088966</v>
+        <v>0.8079125441205335</v>
       </c>
       <c r="P24" t="n">
         <v>82.80031984638366</v>
@@ -9959,16 +9959,16 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L27" t="n">
-        <v>67.24891660839712</v>
+        <v>96.41848977889939</v>
       </c>
       <c r="M27" t="n">
         <v>121.083316575</v>
       </c>
       <c r="N27" t="n">
-        <v>44.29211413952879</v>
+        <v>124.6290173293239</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>102.4042030119497</v>
       </c>
       <c r="P27" t="n">
         <v>82.80031984638366</v>
@@ -10193,7 +10193,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>68.76096162327045</v>
+        <v>38.7834759086478</v>
       </c>
       <c r="L30" t="n">
         <v>96.41848977889939</v>
@@ -10205,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>83.09247786088966</v>
+        <v>102.4042030119497</v>
       </c>
       <c r="P30" t="n">
         <v>82.80031984638366</v>
@@ -10430,19 +10430,19 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>68.76096162327045</v>
+        <v>38.7834759086478</v>
       </c>
       <c r="L33" t="n">
         <v>96.41848977889939</v>
       </c>
       <c r="M33" t="n">
-        <v>66.83732443846469</v>
+        <v>66.83732443846472</v>
       </c>
       <c r="N33" t="n">
-        <v>44.29211413952882</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0.8079125441204482</v>
+        <v>45.10002668364938</v>
       </c>
       <c r="P33" t="n">
         <v>82.80031984638366</v>
@@ -10667,16 +10667,16 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>68.76096162327045</v>
+        <v>38.7834759086478</v>
       </c>
       <c r="L36" t="n">
-        <v>10.72207086287814</v>
+        <v>96.41848977889939</v>
       </c>
       <c r="M36" t="n">
-        <v>63.28181384555992</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>40.73660354662405</v>
+        <v>40.73660354662411</v>
       </c>
       <c r="O36" t="n">
         <v>102.4042030119497</v>
@@ -10904,19 +10904,19 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>68.76096162327045</v>
+        <v>38.7834759086478</v>
       </c>
       <c r="L39" t="n">
-        <v>94.59548946351404</v>
+        <v>96.41848977889939</v>
       </c>
       <c r="M39" t="n">
-        <v>63.28181384555992</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>37.76304586398041</v>
+        <v>124.6290173293239</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>102.4042030119497</v>
       </c>
       <c r="P39" t="n">
         <v>82.80031984638366</v>
@@ -11068,7 +11068,7 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>116.8735187081365</v>
+        <v>87.50112505972015</v>
       </c>
       <c r="N41" t="n">
         <v>113.7102003471159</v>
@@ -11144,13 +11144,13 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>96.41848977889939</v>
       </c>
       <c r="M42" t="n">
-        <v>2.750232245817784</v>
+        <v>33.90942019714367</v>
       </c>
       <c r="N42" t="n">
-        <v>124.6290173293239</v>
+        <v>11.36420989820783</v>
       </c>
       <c r="O42" t="n">
         <v>102.4042030119497</v>
@@ -11308,7 +11308,7 @@
         <v>116.8735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>113.7102003471159</v>
+        <v>80.78229610579481</v>
       </c>
       <c r="O44" t="n">
         <v>99.00804712831379</v>
@@ -11381,19 +11381,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L45" t="n">
-        <v>96.41848977889939</v>
+        <v>65.22309581509779</v>
       </c>
       <c r="M45" t="n">
         <v>121.083316575</v>
       </c>
       <c r="N45" t="n">
-        <v>124.6290173293239</v>
+        <v>8.071080484704865</v>
       </c>
       <c r="O45" t="n">
         <v>102.4042030119497</v>
       </c>
       <c r="P45" t="n">
-        <v>82.80031984638366</v>
+        <v>3.406794038984714</v>
       </c>
       <c r="Q45" t="n">
         <v>54.62009481132077</v>
@@ -23269,19 +23269,19 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F11" t="n">
-        <v>388.2347719984835</v>
+        <v>327.3568549848871</v>
       </c>
       <c r="G11" t="n">
-        <v>340.2008626528691</v>
+        <v>340.2008626528694</v>
       </c>
       <c r="H11" t="n">
-        <v>263.2928032881325</v>
+        <v>344.7977562723312</v>
       </c>
       <c r="I11" t="n">
-        <v>153.4766381847392</v>
+        <v>234.9815911689379</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>60.87791701359671</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>66.42553221961859</v>
+        <v>66.42553221961867</v>
       </c>
       <c r="R11" t="n">
         <v>179.8362654339127</v>
       </c>
       <c r="S11" t="n">
-        <v>224.4488497524935</v>
+        <v>224.4488497524936</v>
       </c>
       <c r="T11" t="n">
-        <v>217.2654113767167</v>
+        <v>135.7604583925183</v>
       </c>
       <c r="U11" t="n">
-        <v>248.7508530617644</v>
+        <v>167.245900077566</v>
       </c>
       <c r="V11" t="n">
         <v>313.3044420010231</v>
@@ -23360,7 +23360,7 @@
         <v>108.2050514113203</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>57.45921747272861</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23381,31 +23381,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>21.40152421372684</v>
+        <v>21.4015242137269</v>
       </c>
       <c r="R12" t="n">
-        <v>57.11598883977885</v>
+        <v>138.6209418239775</v>
       </c>
       <c r="S12" t="n">
-        <v>121.7992978704212</v>
+        <v>203.3042508546199</v>
       </c>
       <c r="T12" t="n">
-        <v>147.5664770849651</v>
+        <v>229.0714300691637</v>
       </c>
       <c r="U12" t="n">
-        <v>235.3024977421726</v>
+        <v>168.1278898737278</v>
       </c>
       <c r="V12" t="n">
-        <v>249.2999251801724</v>
+        <v>167.794972195974</v>
       </c>
       <c r="W12" t="n">
-        <v>283.2492567629311</v>
+        <v>201.7443037787327</v>
       </c>
       <c r="X12" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y12" t="n">
-        <v>242.8962664135933</v>
+        <v>171.1067038251114</v>
       </c>
     </row>
     <row r="13">
@@ -23439,25 +23439,25 @@
         <v>161.3312815343342</v>
       </c>
       <c r="J13" t="n">
-        <v>117.2241112395198</v>
+        <v>117.2241112395199</v>
       </c>
       <c r="K13" t="n">
-        <v>62.72238648891248</v>
+        <v>62.72238648891251</v>
       </c>
       <c r="L13" t="n">
-        <v>29.35538869579024</v>
+        <v>29.35538869579028</v>
       </c>
       <c r="M13" t="n">
-        <v>24.2650229362373</v>
+        <v>24.26502293623736</v>
       </c>
       <c r="N13" t="n">
-        <v>12.71666586360024</v>
+        <v>12.7166658636003</v>
       </c>
       <c r="O13" t="n">
-        <v>40.62542064897274</v>
+        <v>40.62542064897278</v>
       </c>
       <c r="P13" t="n">
-        <v>64.09277033936499</v>
+        <v>64.09277033936503</v>
       </c>
       <c r="Q13" t="n">
         <v>133.8062531964106</v>
@@ -23497,28 +23497,28 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C14" t="n">
-        <v>333.5971194742085</v>
+        <v>261.8075568857263</v>
       </c>
       <c r="D14" t="n">
-        <v>319.1317556432476</v>
+        <v>237.626802659049</v>
       </c>
       <c r="E14" t="n">
         <v>359.9585549362873</v>
       </c>
       <c r="F14" t="n">
-        <v>388.2347719984835</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>340.2008626528691</v>
+        <v>421.7058156370678</v>
       </c>
       <c r="H14" t="n">
-        <v>263.2928032881325</v>
+        <v>344.7977562723312</v>
       </c>
       <c r="I14" t="n">
-        <v>153.4766381847392</v>
+        <v>234.9815911689379</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>60.87791701359663</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>66.42553221961859</v>
+        <v>66.42553221961856</v>
       </c>
       <c r="R14" t="n">
         <v>179.8362654339127</v>
@@ -23551,10 +23551,10 @@
         <v>217.2654113767167</v>
       </c>
       <c r="U14" t="n">
-        <v>248.7508530617644</v>
+        <v>167.2459000775658</v>
       </c>
       <c r="V14" t="n">
-        <v>313.3044420010231</v>
+        <v>231.7994890168245</v>
       </c>
       <c r="W14" t="n">
         <v>325.3917254792934</v>
@@ -23588,16 +23588,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>160.7609498258531</v>
+        <v>110.3729114510977</v>
       </c>
       <c r="H15" t="n">
         <v>135.2970911023817</v>
       </c>
       <c r="I15" t="n">
-        <v>108.2050514113203</v>
+        <v>108.2050514113202</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>57.45921747272855</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.11598883977885</v>
+        <v>138.6209418239775</v>
       </c>
       <c r="S15" t="n">
-        <v>121.7992978704212</v>
+        <v>203.3042508546198</v>
       </c>
       <c r="T15" t="n">
-        <v>154.6376561829383</v>
+        <v>229.0714300691637</v>
       </c>
       <c r="U15" t="n">
-        <v>249.6328428579262</v>
+        <v>168.1278898737276</v>
       </c>
       <c r="V15" t="n">
-        <v>249.2999251801724</v>
+        <v>167.7949721959737</v>
       </c>
       <c r="W15" t="n">
-        <v>283.2492567629311</v>
+        <v>201.7443037787325</v>
       </c>
       <c r="X15" t="n">
         <v>230.033063710963</v>
@@ -23679,10 +23679,10 @@
         <v>117.2241112395198</v>
       </c>
       <c r="K16" t="n">
-        <v>62.72238648891248</v>
+        <v>62.72238648891246</v>
       </c>
       <c r="L16" t="n">
-        <v>29.35538869579024</v>
+        <v>29.35538869579023</v>
       </c>
       <c r="M16" t="n">
         <v>24.2650229362373</v>
@@ -23691,10 +23691,10 @@
         <v>12.71666586360024</v>
       </c>
       <c r="O16" t="n">
-        <v>40.62542064897274</v>
+        <v>40.62542064897272</v>
       </c>
       <c r="P16" t="n">
-        <v>64.09277033936499</v>
+        <v>64.09277033936498</v>
       </c>
       <c r="Q16" t="n">
         <v>133.8062531964106</v>
@@ -23746,16 +23746,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>310.8284690044529</v>
+        <v>421.7058156370678</v>
       </c>
       <c r="H17" t="n">
-        <v>233.9204096397163</v>
+        <v>344.7977562723312</v>
       </c>
       <c r="I17" t="n">
-        <v>124.104244536323</v>
+        <v>234.9815911689379</v>
       </c>
       <c r="J17" t="n">
-        <v>19.62976934073802</v>
+        <v>60.87791701359663</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,25 +23776,25 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>66.42553221961859</v>
+        <v>66.42553221961856</v>
       </c>
       <c r="R17" t="n">
         <v>179.8362654339127</v>
       </c>
       <c r="S17" t="n">
-        <v>224.4488497524935</v>
+        <v>113.5715031198786</v>
       </c>
       <c r="T17" t="n">
         <v>217.2654113767167</v>
       </c>
       <c r="U17" t="n">
-        <v>248.7508530617644</v>
+        <v>137.8735064291495</v>
       </c>
       <c r="V17" t="n">
-        <v>313.3044420010231</v>
+        <v>202.4270953684082</v>
       </c>
       <c r="W17" t="n">
-        <v>325.3917254792934</v>
+        <v>284.1435778064347</v>
       </c>
       <c r="X17" t="n">
         <v>348.8168793035129</v>
@@ -23828,13 +23828,13 @@
         <v>160.7609498258531</v>
       </c>
       <c r="H18" t="n">
-        <v>24.41974446976684</v>
+        <v>135.2970911023817</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>108.2050514113202</v>
       </c>
       <c r="J18" t="n">
-        <v>57.45921747272857</v>
+        <v>57.45921747272855</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23855,25 +23855,25 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>21.40152421372684</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>38.28787968867579</v>
+        <v>138.6209418239775</v>
       </c>
       <c r="S18" t="n">
-        <v>92.42690422200496</v>
+        <v>203.3042508546198</v>
       </c>
       <c r="T18" t="n">
-        <v>229.0714300691637</v>
+        <v>118.1940834365488</v>
       </c>
       <c r="U18" t="n">
-        <v>249.6328428579262</v>
+        <v>138.7554962253113</v>
       </c>
       <c r="V18" t="n">
-        <v>249.2999251801724</v>
+        <v>138.4225785475575</v>
       </c>
       <c r="W18" t="n">
-        <v>283.2492567629311</v>
+        <v>206.9900140626508</v>
       </c>
       <c r="X18" t="n">
         <v>230.033063710963</v>
@@ -23916,10 +23916,10 @@
         <v>117.2241112395198</v>
       </c>
       <c r="K19" t="n">
-        <v>62.72238648891248</v>
+        <v>62.72238648891246</v>
       </c>
       <c r="L19" t="n">
-        <v>29.35538869579024</v>
+        <v>29.35538869579023</v>
       </c>
       <c r="M19" t="n">
         <v>24.2650229362373</v>
@@ -23928,10 +23928,10 @@
         <v>12.71666586360024</v>
       </c>
       <c r="O19" t="n">
-        <v>40.62542064897274</v>
+        <v>40.62542064897272</v>
       </c>
       <c r="P19" t="n">
-        <v>64.09277033936499</v>
+        <v>64.09277033936498</v>
       </c>
       <c r="Q19" t="n">
         <v>133.8062531964106</v>
@@ -23977,7 +23977,7 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E20" t="n">
-        <v>359.9585549362873</v>
+        <v>249.0812083036724</v>
       </c>
       <c r="F20" t="n">
         <v>399.146417573369</v>
@@ -23986,13 +23986,13 @@
         <v>421.7058156370678</v>
       </c>
       <c r="H20" t="n">
-        <v>303.5496085994725</v>
+        <v>344.7977562723312</v>
       </c>
       <c r="I20" t="n">
-        <v>124.104244536323</v>
+        <v>234.9815911689379</v>
       </c>
       <c r="J20" t="n">
-        <v>60.87791701359666</v>
+        <v>60.87791701359663</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,10 +24013,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>66.42553221961859</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>179.8362654339127</v>
+        <v>68.95891880129776</v>
       </c>
       <c r="S20" t="n">
         <v>224.4488497524935</v>
@@ -24025,10 +24025,10 @@
         <v>217.2654113767167</v>
       </c>
       <c r="U20" t="n">
-        <v>137.8735064291496</v>
+        <v>248.7508530617644</v>
       </c>
       <c r="V20" t="n">
-        <v>202.4270953684083</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W20" t="n">
         <v>325.3917254792934</v>
@@ -24037,7 +24037,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y20" t="n">
-        <v>377.9289763951821</v>
+        <v>292.2290143093271</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>188.0127573810344</v>
+        <v>77.13541074841953</v>
       </c>
       <c r="C21" t="n">
         <v>203.8424276152394</v>
@@ -24056,22 +24056,22 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E21" t="n">
-        <v>187.4605452976028</v>
+        <v>76.58319866498792</v>
       </c>
       <c r="F21" t="n">
-        <v>73.65128599002222</v>
+        <v>97.72510542504361</v>
       </c>
       <c r="G21" t="n">
-        <v>49.8836031932382</v>
+        <v>160.7609498258531</v>
       </c>
       <c r="H21" t="n">
-        <v>24.41974446976684</v>
+        <v>135.2970911023817</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>108.2050514113202</v>
       </c>
       <c r="J21" t="n">
-        <v>57.45921747272857</v>
+        <v>57.45921747272855</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24092,13 +24092,13 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>21.40152421372684</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>138.6209418239775</v>
       </c>
       <c r="S21" t="n">
-        <v>203.3042508546198</v>
+        <v>92.42690422200491</v>
       </c>
       <c r="T21" t="n">
         <v>229.0714300691637</v>
@@ -24153,10 +24153,10 @@
         <v>117.2241112395198</v>
       </c>
       <c r="K22" t="n">
-        <v>62.72238648891248</v>
+        <v>62.72238648891246</v>
       </c>
       <c r="L22" t="n">
-        <v>29.35538869579024</v>
+        <v>29.35538869579023</v>
       </c>
       <c r="M22" t="n">
         <v>24.2650229362373</v>
@@ -24165,10 +24165,10 @@
         <v>12.71666586360024</v>
       </c>
       <c r="O22" t="n">
-        <v>40.62542064897274</v>
+        <v>40.62542064897272</v>
       </c>
       <c r="P22" t="n">
-        <v>64.09277033936499</v>
+        <v>64.09277033936498</v>
       </c>
       <c r="Q22" t="n">
         <v>133.8062531964106</v>
@@ -24211,7 +24211,7 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D23" t="n">
-        <v>204.698898417728</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E23" t="n">
         <v>359.9585549362873</v>
@@ -24226,10 +24226,10 @@
         <v>344.7977562723312</v>
       </c>
       <c r="I23" t="n">
-        <v>120.5487339434183</v>
+        <v>234.9815911689379</v>
       </c>
       <c r="J23" t="n">
-        <v>26.81154518734629</v>
+        <v>60.87791701359663</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,10 +24250,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>66.42553221961859</v>
+        <v>32.35916039336826</v>
       </c>
       <c r="R23" t="n">
-        <v>179.8362654339127</v>
+        <v>65.40340820839299</v>
       </c>
       <c r="S23" t="n">
         <v>224.4488497524935</v>
@@ -24262,10 +24262,10 @@
         <v>217.2654113767167</v>
       </c>
       <c r="U23" t="n">
-        <v>248.7508530617644</v>
+        <v>134.3179958362447</v>
       </c>
       <c r="V23" t="n">
-        <v>198.8715847755035</v>
+        <v>198.8715847755034</v>
       </c>
       <c r="W23" t="n">
         <v>325.3917254792934</v>
@@ -24284,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>73.57990015551482</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C24" t="n">
         <v>203.8424276152394</v>
       </c>
       <c r="D24" t="n">
-        <v>57.66608515399258</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E24" t="n">
         <v>187.4605452976028</v>
@@ -24302,13 +24302,13 @@
         <v>160.7609498258531</v>
       </c>
       <c r="H24" t="n">
-        <v>20.86423387686207</v>
+        <v>135.2970911023817</v>
       </c>
       <c r="I24" t="n">
-        <v>108.2050514113203</v>
+        <v>108.2050514113202</v>
       </c>
       <c r="J24" t="n">
-        <v>57.45921747272857</v>
+        <v>57.45921747272855</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24329,7 +24329,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>21.40152421372682</v>
       </c>
       <c r="R24" t="n">
         <v>138.6209418239775</v>
@@ -24338,22 +24338,22 @@
         <v>203.3042508546198</v>
       </c>
       <c r="T24" t="n">
-        <v>229.0714300691637</v>
+        <v>114.638572843644</v>
       </c>
       <c r="U24" t="n">
-        <v>249.6328428579262</v>
+        <v>135.1999856324065</v>
       </c>
       <c r="V24" t="n">
-        <v>249.2999251801724</v>
+        <v>134.8670679546527</v>
       </c>
       <c r="W24" t="n">
-        <v>283.2492567629311</v>
+        <v>182.4567961186934</v>
       </c>
       <c r="X24" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y24" t="n">
-        <v>163.5053299830826</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="25">
@@ -24390,10 +24390,10 @@
         <v>117.2241112395198</v>
       </c>
       <c r="K25" t="n">
-        <v>62.72238648891248</v>
+        <v>62.72238648891246</v>
       </c>
       <c r="L25" t="n">
-        <v>29.35538869579024</v>
+        <v>29.35538869579023</v>
       </c>
       <c r="M25" t="n">
         <v>24.2650229362373</v>
@@ -24402,10 +24402,10 @@
         <v>12.71666586360024</v>
       </c>
       <c r="O25" t="n">
-        <v>40.62542064897274</v>
+        <v>40.62542064897272</v>
       </c>
       <c r="P25" t="n">
-        <v>64.09277033936499</v>
+        <v>64.09277033936498</v>
       </c>
       <c r="Q25" t="n">
         <v>133.8062531964106</v>
@@ -24448,25 +24448,25 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D26" t="n">
-        <v>319.1317556432476</v>
+        <v>204.6988984177279</v>
       </c>
       <c r="E26" t="n">
         <v>359.9585549362873</v>
       </c>
       <c r="F26" t="n">
-        <v>365.0800457471187</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
         <v>307.2729584115481</v>
       </c>
       <c r="H26" t="n">
-        <v>230.3648990468116</v>
+        <v>344.7977562723312</v>
       </c>
       <c r="I26" t="n">
-        <v>120.5487339434183</v>
+        <v>234.9815911689379</v>
       </c>
       <c r="J26" t="n">
-        <v>60.87791701359666</v>
+        <v>60.87791701359663</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>66.42553221961859</v>
+        <v>66.42553221961856</v>
       </c>
       <c r="R26" t="n">
         <v>179.8362654339127</v>
@@ -24499,13 +24499,13 @@
         <v>217.2654113767167</v>
       </c>
       <c r="U26" t="n">
-        <v>248.7508530617644</v>
+        <v>214.6844812355141</v>
       </c>
       <c r="V26" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W26" t="n">
-        <v>325.3917254792934</v>
+        <v>210.9588682537737</v>
       </c>
       <c r="X26" t="n">
         <v>348.8168793035129</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>188.0127573810344</v>
+        <v>108.6218209505236</v>
       </c>
       <c r="C27" t="n">
         <v>203.8424276152394</v>
@@ -24530,22 +24530,22 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E27" t="n">
-        <v>73.02768807208321</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F27" t="n">
         <v>173.9843481253239</v>
       </c>
       <c r="G27" t="n">
-        <v>160.7609498258531</v>
+        <v>46.32809260033338</v>
       </c>
       <c r="H27" t="n">
         <v>135.2970911023817</v>
       </c>
       <c r="I27" t="n">
-        <v>108.2050514113203</v>
+        <v>108.2050514113202</v>
       </c>
       <c r="J27" t="n">
-        <v>57.45921747272857</v>
+        <v>57.45921747272855</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24566,16 +24566,16 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>21.40152421372684</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>138.6209418239775</v>
       </c>
       <c r="S27" t="n">
-        <v>88.8713936291002</v>
+        <v>203.3042508546198</v>
       </c>
       <c r="T27" t="n">
-        <v>229.0714300691637</v>
+        <v>114.638572843644</v>
       </c>
       <c r="U27" t="n">
         <v>249.6328428579262</v>
@@ -24584,13 +24584,13 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W27" t="n">
-        <v>182.4567961186935</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X27" t="n">
-        <v>115.6002064854434</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y27" t="n">
-        <v>242.8962664135933</v>
+        <v>128.4634091880737</v>
       </c>
     </row>
     <row r="28">
@@ -24627,10 +24627,10 @@
         <v>117.2241112395198</v>
       </c>
       <c r="K28" t="n">
-        <v>62.72238648891248</v>
+        <v>62.72238648891246</v>
       </c>
       <c r="L28" t="n">
-        <v>29.35538869579024</v>
+        <v>29.35538869579023</v>
       </c>
       <c r="M28" t="n">
         <v>24.2650229362373</v>
@@ -24639,10 +24639,10 @@
         <v>12.71666586360024</v>
       </c>
       <c r="O28" t="n">
-        <v>40.62542064897274</v>
+        <v>40.62542064897272</v>
       </c>
       <c r="P28" t="n">
-        <v>64.09277033936499</v>
+        <v>64.09277033936498</v>
       </c>
       <c r="Q28" t="n">
         <v>133.8062531964106</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>250.1234703715435</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C29" t="n">
-        <v>219.1642622486888</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D29" t="n">
-        <v>285.0653838169973</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E29" t="n">
         <v>359.9585549362873</v>
@@ -24703,7 +24703,7 @@
         <v>234.9815911689379</v>
       </c>
       <c r="J29" t="n">
-        <v>60.87791701359666</v>
+        <v>60.87791701359663</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,10 +24724,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>66.42553221961859</v>
+        <v>66.42553221961856</v>
       </c>
       <c r="R29" t="n">
-        <v>179.8362654339127</v>
+        <v>65.40340820839299</v>
       </c>
       <c r="S29" t="n">
         <v>224.4488497524935</v>
@@ -24736,19 +24736,19 @@
         <v>217.2654113767167</v>
       </c>
       <c r="U29" t="n">
-        <v>248.7508530617644</v>
+        <v>134.3179958362447</v>
       </c>
       <c r="V29" t="n">
-        <v>313.3044420010231</v>
+        <v>279.2380701747728</v>
       </c>
       <c r="W29" t="n">
-        <v>325.3917254792934</v>
+        <v>210.9588682537737</v>
       </c>
       <c r="X29" t="n">
         <v>348.8168793035129</v>
       </c>
       <c r="Y29" t="n">
-        <v>263.4961191696625</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="30">
@@ -24773,16 +24773,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>46.32809260033343</v>
+        <v>160.7609498258531</v>
       </c>
       <c r="H30" t="n">
         <v>135.2970911023817</v>
       </c>
       <c r="I30" t="n">
-        <v>108.2050514113203</v>
+        <v>108.2050514113202</v>
       </c>
       <c r="J30" t="n">
-        <v>57.45921747272857</v>
+        <v>57.45921747272855</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24803,7 +24803,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>21.40152421372682</v>
       </c>
       <c r="R30" t="n">
         <v>138.6209418239775</v>
@@ -24815,19 +24815,19 @@
         <v>229.0714300691637</v>
       </c>
       <c r="U30" t="n">
-        <v>135.1999856324066</v>
+        <v>135.1999856324065</v>
       </c>
       <c r="V30" t="n">
-        <v>249.2999251801724</v>
+        <v>134.8670679546527</v>
       </c>
       <c r="W30" t="n">
-        <v>168.8163995374115</v>
+        <v>182.4567961186934</v>
       </c>
       <c r="X30" t="n">
-        <v>150.6421272804522</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y30" t="n">
-        <v>242.8962664135933</v>
+        <v>128.4634091880737</v>
       </c>
     </row>
     <row r="31">
@@ -24864,10 +24864,10 @@
         <v>117.2241112395198</v>
       </c>
       <c r="K31" t="n">
-        <v>62.72238648891248</v>
+        <v>62.72238648891246</v>
       </c>
       <c r="L31" t="n">
-        <v>29.35538869579024</v>
+        <v>29.35538869579023</v>
       </c>
       <c r="M31" t="n">
         <v>24.2650229362373</v>
@@ -24876,10 +24876,10 @@
         <v>12.71666586360024</v>
       </c>
       <c r="O31" t="n">
-        <v>40.62542064897274</v>
+        <v>40.62542064897272</v>
       </c>
       <c r="P31" t="n">
-        <v>64.09277033936499</v>
+        <v>64.09277033936498</v>
       </c>
       <c r="Q31" t="n">
         <v>133.8062531964106</v>
@@ -24922,25 +24922,25 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D32" t="n">
-        <v>204.698898417728</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E32" t="n">
         <v>359.9585549362873</v>
       </c>
       <c r="F32" t="n">
-        <v>399.146417573369</v>
+        <v>365.0800457471187</v>
       </c>
       <c r="G32" t="n">
         <v>421.7058156370678</v>
       </c>
       <c r="H32" t="n">
-        <v>310.7313844460808</v>
+        <v>344.7977562723312</v>
       </c>
       <c r="I32" t="n">
         <v>234.9815911689379</v>
       </c>
       <c r="J32" t="n">
-        <v>60.87791701359666</v>
+        <v>60.87791701359663</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>66.42553221961859</v>
+        <v>66.42553221961856</v>
       </c>
       <c r="R32" t="n">
         <v>179.8362654339127</v>
@@ -24973,13 +24973,13 @@
         <v>217.2654113767167</v>
       </c>
       <c r="U32" t="n">
-        <v>248.7508530617644</v>
+        <v>134.3179958362447</v>
       </c>
       <c r="V32" t="n">
-        <v>198.8715847755035</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W32" t="n">
-        <v>325.3917254792934</v>
+        <v>210.9588682537737</v>
       </c>
       <c r="X32" t="n">
         <v>348.8168793035129</v>
@@ -25016,10 +25016,10 @@
         <v>135.2970911023817</v>
       </c>
       <c r="I33" t="n">
-        <v>7.412590767082605</v>
+        <v>108.2050514113202</v>
       </c>
       <c r="J33" t="n">
-        <v>57.45921747272857</v>
+        <v>57.45921747272855</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25040,7 +25040,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>21.40152421372684</v>
+        <v>21.40152421372682</v>
       </c>
       <c r="R33" t="n">
         <v>138.6209418239775</v>
@@ -25049,19 +25049,19 @@
         <v>203.3042508546198</v>
       </c>
       <c r="T33" t="n">
-        <v>114.6385728436441</v>
+        <v>114.638572843644</v>
       </c>
       <c r="U33" t="n">
-        <v>135.1999856324066</v>
+        <v>135.1999856324065</v>
       </c>
       <c r="V33" t="n">
-        <v>249.2999251801724</v>
+        <v>134.8670679546527</v>
       </c>
       <c r="W33" t="n">
-        <v>283.2492567629311</v>
+        <v>182.4567961186934</v>
       </c>
       <c r="X33" t="n">
-        <v>115.6002064854434</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y33" t="n">
         <v>242.8962664135933</v>
@@ -25101,10 +25101,10 @@
         <v>117.2241112395198</v>
       </c>
       <c r="K34" t="n">
-        <v>62.72238648891248</v>
+        <v>62.72238648891246</v>
       </c>
       <c r="L34" t="n">
-        <v>29.35538869579024</v>
+        <v>29.35538869579023</v>
       </c>
       <c r="M34" t="n">
         <v>24.2650229362373</v>
@@ -25113,10 +25113,10 @@
         <v>12.71666586360024</v>
       </c>
       <c r="O34" t="n">
-        <v>40.62542064897274</v>
+        <v>40.62542064897272</v>
       </c>
       <c r="P34" t="n">
-        <v>64.09277033936499</v>
+        <v>64.09277033936498</v>
       </c>
       <c r="Q34" t="n">
         <v>133.8062531964106</v>
@@ -25165,10 +25165,10 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F35" t="n">
-        <v>357.8982699005104</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>421.7058156370678</v>
+        <v>310.8284690044528</v>
       </c>
       <c r="H35" t="n">
         <v>344.7977562723312</v>
@@ -25177,7 +25177,7 @@
         <v>234.9815911689379</v>
       </c>
       <c r="J35" t="n">
-        <v>60.87791701359666</v>
+        <v>60.87791701359663</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,13 +25198,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>66.42553221961859</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>179.8362654339127</v>
+        <v>68.95891880129776</v>
       </c>
       <c r="S35" t="n">
-        <v>224.4488497524935</v>
+        <v>138.7488876666385</v>
       </c>
       <c r="T35" t="n">
         <v>217.2654113767167</v>
@@ -25216,13 +25216,13 @@
         <v>313.3044420010231</v>
       </c>
       <c r="W35" t="n">
-        <v>214.5143788466785</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X35" t="n">
-        <v>237.939532670898</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y35" t="n">
-        <v>267.0516297625672</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>77.13541074841959</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C36" t="n">
         <v>203.8424276152394</v>
@@ -25253,10 +25253,10 @@
         <v>135.2970911023817</v>
       </c>
       <c r="I36" t="n">
-        <v>108.2050514113203</v>
+        <v>108.2050514113202</v>
       </c>
       <c r="J36" t="n">
-        <v>57.45921747272857</v>
+        <v>57.45921747272855</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25277,31 +25277,31 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>21.40152421372684</v>
+        <v>21.40152421372682</v>
       </c>
       <c r="R36" t="n">
         <v>138.6209418239775</v>
       </c>
       <c r="S36" t="n">
-        <v>92.42690422200496</v>
+        <v>203.3042508546198</v>
       </c>
       <c r="T36" t="n">
-        <v>118.1940834365489</v>
+        <v>229.0714300691637</v>
       </c>
       <c r="U36" t="n">
-        <v>249.6328428579262</v>
+        <v>151.972075943919</v>
       </c>
       <c r="V36" t="n">
-        <v>151.6391582661652</v>
+        <v>138.4225785475575</v>
       </c>
       <c r="W36" t="n">
-        <v>283.2492567629311</v>
+        <v>172.3719101303162</v>
       </c>
       <c r="X36" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y36" t="n">
-        <v>242.8962664135933</v>
+        <v>132.0189197809784</v>
       </c>
     </row>
     <row r="37">
@@ -25338,10 +25338,10 @@
         <v>117.2241112395198</v>
       </c>
       <c r="K37" t="n">
-        <v>62.72238648891248</v>
+        <v>62.72238648891246</v>
       </c>
       <c r="L37" t="n">
-        <v>29.35538869579024</v>
+        <v>29.35538869579023</v>
       </c>
       <c r="M37" t="n">
         <v>24.2650229362373</v>
@@ -25350,10 +25350,10 @@
         <v>12.71666586360024</v>
       </c>
       <c r="O37" t="n">
-        <v>40.62542064897274</v>
+        <v>40.62542064897272</v>
       </c>
       <c r="P37" t="n">
-        <v>64.09277033936499</v>
+        <v>64.09277033936498</v>
       </c>
       <c r="Q37" t="n">
         <v>133.8062531964106</v>
@@ -25393,19 +25393,19 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C38" t="n">
-        <v>292.3489718013498</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D38" t="n">
         <v>319.1317556432476</v>
       </c>
       <c r="E38" t="n">
-        <v>359.9585549362873</v>
+        <v>318.7104072634287</v>
       </c>
       <c r="F38" t="n">
-        <v>399.146417573369</v>
+        <v>288.2690709407541</v>
       </c>
       <c r="G38" t="n">
-        <v>421.7058156370678</v>
+        <v>310.8284690044528</v>
       </c>
       <c r="H38" t="n">
         <v>344.7977562723312</v>
@@ -25414,7 +25414,7 @@
         <v>234.9815911689379</v>
       </c>
       <c r="J38" t="n">
-        <v>60.87791701359666</v>
+        <v>60.87791701359663</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>66.42553221961859</v>
+        <v>66.42553221961856</v>
       </c>
       <c r="R38" t="n">
-        <v>68.95891880129781</v>
+        <v>179.8362654339127</v>
       </c>
       <c r="S38" t="n">
-        <v>113.5715031198787</v>
+        <v>224.4488497524935</v>
       </c>
       <c r="T38" t="n">
         <v>217.2654113767167</v>
       </c>
       <c r="U38" t="n">
-        <v>248.7508530617644</v>
+        <v>137.8735064291495</v>
       </c>
       <c r="V38" t="n">
         <v>313.3044420010231</v>
@@ -25456,7 +25456,7 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X38" t="n">
-        <v>237.939532670898</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y38" t="n">
         <v>377.9289763951821</v>
@@ -25472,10 +25472,10 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C39" t="n">
-        <v>92.96508098262453</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D39" t="n">
-        <v>153.2989171519605</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E39" t="n">
         <v>187.4605452976028</v>
@@ -25490,10 +25490,10 @@
         <v>135.2970911023817</v>
       </c>
       <c r="I39" t="n">
-        <v>108.2050514113203</v>
+        <v>108.2050514113202</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>57.45921747272855</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25514,10 +25514,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>21.40152421372682</v>
       </c>
       <c r="R39" t="n">
-        <v>27.74359519136263</v>
+        <v>138.6209418239775</v>
       </c>
       <c r="S39" t="n">
         <v>203.3042508546198</v>
@@ -25526,19 +25526,19 @@
         <v>229.0714300691637</v>
       </c>
       <c r="U39" t="n">
-        <v>249.6328428579262</v>
+        <v>138.7554962253113</v>
       </c>
       <c r="V39" t="n">
-        <v>249.2999251801724</v>
+        <v>138.4225785475575</v>
       </c>
       <c r="W39" t="n">
-        <v>172.3719101303163</v>
+        <v>172.3719101303162</v>
       </c>
       <c r="X39" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y39" t="n">
-        <v>242.8962664135933</v>
+        <v>145.2354994995862</v>
       </c>
     </row>
     <row r="40">
@@ -25575,10 +25575,10 @@
         <v>117.2241112395198</v>
       </c>
       <c r="K40" t="n">
-        <v>62.72238648891248</v>
+        <v>62.72238648891246</v>
       </c>
       <c r="L40" t="n">
-        <v>29.35538869579024</v>
+        <v>29.35538869579023</v>
       </c>
       <c r="M40" t="n">
         <v>24.2650229362373</v>
@@ -25587,10 +25587,10 @@
         <v>12.71666586360024</v>
       </c>
       <c r="O40" t="n">
-        <v>40.62542064897274</v>
+        <v>40.62542064897272</v>
       </c>
       <c r="P40" t="n">
-        <v>64.09277033936499</v>
+        <v>64.09277033936498</v>
       </c>
       <c r="Q40" t="n">
         <v>133.8062531964106</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>283.0513746128645</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C41" t="n">
-        <v>328.2330891053451</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D41" t="n">
         <v>319.1317556432476</v>
@@ -25651,7 +25651,7 @@
         <v>234.9815911689379</v>
       </c>
       <c r="J41" t="n">
-        <v>60.87791701359666</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>179.8362654339127</v>
+        <v>98.33131244971403</v>
       </c>
       <c r="S41" t="n">
         <v>224.4488497524935</v>
@@ -25684,19 +25684,19 @@
         <v>217.2654113767167</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7508530617644</v>
+        <v>167.2459000775658</v>
       </c>
       <c r="V41" t="n">
-        <v>313.3044420010231</v>
+        <v>287.3133756615575</v>
       </c>
       <c r="W41" t="n">
-        <v>243.8867724950947</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X41" t="n">
         <v>348.8168793035129</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.4240234109835</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="42">
@@ -25727,10 +25727,10 @@
         <v>135.2970911023817</v>
       </c>
       <c r="I42" t="n">
-        <v>108.2050514113203</v>
+        <v>108.2050514113202</v>
       </c>
       <c r="J42" t="n">
-        <v>57.45921747272857</v>
+        <v>57.45921747272855</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25751,7 +25751,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>21.40152421372684</v>
+        <v>21.40152421372682</v>
       </c>
       <c r="R42" t="n">
         <v>138.6209418239775</v>
@@ -25763,16 +25763,16 @@
         <v>229.0714300691637</v>
       </c>
       <c r="U42" t="n">
-        <v>249.6328428579262</v>
+        <v>177.8432802694441</v>
       </c>
       <c r="V42" t="n">
-        <v>177.5103625916902</v>
+        <v>167.7949721959737</v>
       </c>
       <c r="W42" t="n">
         <v>201.7443037787325</v>
       </c>
       <c r="X42" t="n">
-        <v>148.5281107267643</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y42" t="n">
         <v>161.3913134293947</v>
@@ -25812,10 +25812,10 @@
         <v>117.2241112395198</v>
       </c>
       <c r="K43" t="n">
-        <v>62.72238648891248</v>
+        <v>62.72238648891246</v>
       </c>
       <c r="L43" t="n">
-        <v>29.35538869579024</v>
+        <v>29.35538869579023</v>
       </c>
       <c r="M43" t="n">
         <v>24.2650229362373</v>
@@ -25824,10 +25824,10 @@
         <v>12.71666586360024</v>
       </c>
       <c r="O43" t="n">
-        <v>40.62542064897274</v>
+        <v>40.62542064897272</v>
       </c>
       <c r="P43" t="n">
-        <v>64.09277033936499</v>
+        <v>64.09277033936498</v>
       </c>
       <c r="Q43" t="n">
         <v>133.8062531964106</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>283.0513746128645</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C44" t="n">
-        <v>333.5971194742085</v>
+        <v>252.0921664900098</v>
       </c>
       <c r="D44" t="n">
         <v>319.1317556432476</v>
@@ -25876,10 +25876,10 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F44" t="n">
-        <v>327.3568549848869</v>
+        <v>317.6414645891704</v>
       </c>
       <c r="G44" t="n">
-        <v>421.7058156370678</v>
+        <v>340.2008626528691</v>
       </c>
       <c r="H44" t="n">
         <v>344.7977562723312</v>
@@ -25888,7 +25888,7 @@
         <v>234.9815911689379</v>
       </c>
       <c r="J44" t="n">
-        <v>60.87791701359666</v>
+        <v>60.87791701359663</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,10 +25909,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>66.42553221961859</v>
+        <v>66.42553221961856</v>
       </c>
       <c r="R44" t="n">
-        <v>179.8362654339127</v>
+        <v>108.0467028454307</v>
       </c>
       <c r="S44" t="n">
         <v>224.4488497524935</v>
@@ -25924,7 +25924,7 @@
         <v>248.7508530617644</v>
       </c>
       <c r="V44" t="n">
-        <v>231.7994890168245</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W44" t="n">
         <v>325.3917254792934</v>
@@ -25933,7 +25933,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.4240234109835</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="45">
@@ -25952,7 +25952,7 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E45" t="n">
-        <v>187.4605452976028</v>
+        <v>105.9555923134042</v>
       </c>
       <c r="F45" t="n">
         <v>173.9843481253239</v>
@@ -25964,10 +25964,10 @@
         <v>135.2970911023817</v>
       </c>
       <c r="I45" t="n">
-        <v>108.2050514113203</v>
+        <v>108.2050514113202</v>
       </c>
       <c r="J45" t="n">
-        <v>57.45921747272857</v>
+        <v>57.45921747272855</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25988,25 +25988,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>21.40152421372682</v>
       </c>
       <c r="R45" t="n">
-        <v>88.23290344922219</v>
+        <v>138.6209418239775</v>
       </c>
       <c r="S45" t="n">
         <v>203.3042508546198</v>
       </c>
       <c r="T45" t="n">
-        <v>147.5664770849651</v>
+        <v>229.0714300691637</v>
       </c>
       <c r="U45" t="n">
         <v>249.6328428579262</v>
       </c>
       <c r="V45" t="n">
-        <v>167.7949721959737</v>
+        <v>177.5103625916902</v>
       </c>
       <c r="W45" t="n">
-        <v>283.2492567629311</v>
+        <v>201.7443037787325</v>
       </c>
       <c r="X45" t="n">
         <v>230.033063710963</v>
@@ -26049,10 +26049,10 @@
         <v>117.2241112395198</v>
       </c>
       <c r="K46" t="n">
-        <v>62.72238648891248</v>
+        <v>62.72238648891246</v>
       </c>
       <c r="L46" t="n">
-        <v>29.35538869579024</v>
+        <v>29.35538869579023</v>
       </c>
       <c r="M46" t="n">
         <v>24.2650229362373</v>
@@ -26061,10 +26061,10 @@
         <v>12.71666586360024</v>
       </c>
       <c r="O46" t="n">
-        <v>40.62542064897274</v>
+        <v>40.62542064897272</v>
       </c>
       <c r="P46" t="n">
-        <v>64.09277033936499</v>
+        <v>64.09277033936498</v>
       </c>
       <c r="Q46" t="n">
         <v>133.8062531964106</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>437668.377971396</v>
+        <v>437668.3779713955</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>437668.377971396</v>
+        <v>437668.3779713959</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>449203.1476479086</v>
+        <v>449203.1476479087</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>450259.6260317828</v>
+        <v>450259.6260317827</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>450259.6260317829</v>
+        <v>450259.6260317828</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>450259.6260317828</v>
+        <v>450259.6260317829</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>449203.1476479085</v>
+        <v>449203.1476479086</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>437668.3779713956</v>
+        <v>437668.3779713959</v>
       </c>
     </row>
     <row r="16">
@@ -26322,13 +26322,13 @@
         <v>141754.9928791209</v>
       </c>
       <c r="E2" t="n">
-        <v>187572.161987741</v>
+        <v>187572.1619877409</v>
       </c>
       <c r="F2" t="n">
         <v>187572.161987741</v>
       </c>
       <c r="G2" t="n">
-        <v>192515.6347062465</v>
+        <v>192515.6347062464</v>
       </c>
       <c r="H2" t="n">
         <v>192515.6347062464</v>
@@ -26343,7 +26343,7 @@
         <v>192968.4111564783</v>
       </c>
       <c r="L2" t="n">
-        <v>192968.4111564783</v>
+        <v>192968.4111564784</v>
       </c>
       <c r="M2" t="n">
         <v>192515.6347062465</v>
@@ -26355,7 +26355,7 @@
         <v>187572.161987741</v>
       </c>
       <c r="P2" t="n">
-        <v>187572.1619877411</v>
+        <v>187572.161987741</v>
       </c>
     </row>
     <row r="3">
@@ -26374,19 +26374,19 @@
         <v>28918.31204698775</v>
       </c>
       <c r="E3" t="n">
-        <v>152501.7303179314</v>
+        <v>152501.7303179312</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.55665509030223e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>8050.532513126184</v>
+        <v>8050.532513126176</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>945.4849323758293</v>
+        <v>945.4849323758285</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>19425.31284167998</v>
+        <v>19425.31284167996</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,34 +26426,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>59.05898290176233</v>
+        <v>59.05898290176216</v>
       </c>
       <c r="F4" t="n">
         <v>59.05898290176233</v>
       </c>
       <c r="G4" t="n">
-        <v>73.46996929821012</v>
+        <v>73.46996929821015</v>
       </c>
       <c r="H4" t="n">
-        <v>73.46996929821013</v>
+        <v>73.46996929821015</v>
       </c>
       <c r="I4" t="n">
-        <v>74.78988257304161</v>
+        <v>74.78988257304165</v>
       </c>
       <c r="J4" t="n">
-        <v>74.78988257304161</v>
+        <v>74.78988257304164</v>
       </c>
       <c r="K4" t="n">
-        <v>74.78988257304161</v>
+        <v>74.78988257304164</v>
       </c>
       <c r="L4" t="n">
-        <v>74.78988257304161</v>
+        <v>74.78988257304164</v>
       </c>
       <c r="M4" t="n">
-        <v>73.46996929821012</v>
+        <v>73.46996929821016</v>
       </c>
       <c r="N4" t="n">
-        <v>73.46996929821012</v>
+        <v>73.46996929821016</v>
       </c>
       <c r="O4" t="n">
         <v>59.05898290176233</v>
@@ -26478,34 +26478,34 @@
         <v>40368.52827033812</v>
       </c>
       <c r="E5" t="n">
-        <v>15174.16343735955</v>
+        <v>15174.16343735953</v>
       </c>
       <c r="F5" t="n">
         <v>15174.16343735955</v>
       </c>
       <c r="G5" t="n">
-        <v>16960.00497118325</v>
+        <v>16960.00497118326</v>
       </c>
       <c r="H5" t="n">
-        <v>16960.00497118325</v>
+        <v>16960.00497118326</v>
       </c>
       <c r="I5" t="n">
-        <v>17176.18001523186</v>
+        <v>17176.18001523187</v>
       </c>
       <c r="J5" t="n">
-        <v>17176.18001523186</v>
+        <v>17176.18001523187</v>
       </c>
       <c r="K5" t="n">
-        <v>17176.18001523186</v>
+        <v>17176.18001523187</v>
       </c>
       <c r="L5" t="n">
-        <v>17176.18001523186</v>
+        <v>17176.18001523187</v>
       </c>
       <c r="M5" t="n">
-        <v>16960.00497118325</v>
+        <v>16960.00497118326</v>
       </c>
       <c r="N5" t="n">
-        <v>16960.00497118325</v>
+        <v>16960.00497118326</v>
       </c>
       <c r="O5" t="n">
         <v>15174.16343735955</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-138119.8791533777</v>
+        <v>-156243.7106141897</v>
       </c>
       <c r="C6" t="n">
-        <v>49440.66648784855</v>
+        <v>31944.25818144905</v>
       </c>
       <c r="D6" t="n">
-        <v>72468.152561795</v>
+        <v>55398.25399351363</v>
       </c>
       <c r="E6" t="n">
-        <v>19837.20924954835</v>
+        <v>4949.080638820353</v>
       </c>
       <c r="F6" t="n">
-        <v>172338.9395674797</v>
+        <v>157450.8109567514</v>
       </c>
       <c r="G6" t="n">
-        <v>167431.6272526388</v>
+        <v>152778.9021046967</v>
       </c>
       <c r="H6" t="n">
-        <v>175482.159765765</v>
+        <v>160829.4346178229</v>
       </c>
       <c r="I6" t="n">
-        <v>174771.9563262975</v>
+        <v>160140.7919616999</v>
       </c>
       <c r="J6" t="n">
-        <v>175717.4412586734</v>
+        <v>161086.2768940757</v>
       </c>
       <c r="K6" t="n">
-        <v>175717.4412586734</v>
+        <v>161086.2768940757</v>
       </c>
       <c r="L6" t="n">
-        <v>175717.4412586734</v>
+        <v>161086.2768940758</v>
       </c>
       <c r="M6" t="n">
-        <v>156056.846924085</v>
+        <v>141404.121776143</v>
       </c>
       <c r="N6" t="n">
-        <v>175482.159765765</v>
+        <v>160829.4346178229</v>
       </c>
       <c r="O6" t="n">
-        <v>172338.9395674797</v>
+        <v>157450.8109567517</v>
       </c>
       <c r="P6" t="n">
-        <v>172338.9395674798</v>
+        <v>157450.8109567516</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>309.2168931347763</v>
       </c>
       <c r="E3" t="n">
-        <v>468.7459768770767</v>
+        <v>468.7459768770765</v>
       </c>
       <c r="F3" t="n">
         <v>468.7459768770767</v>
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>81.50495298419864</v>
+        <v>81.5049529841984</v>
       </c>
       <c r="F4" t="n">
         <v>81.50495298419864</v>
@@ -26810,16 +26810,16 @@
         <v>110.8773466326149</v>
       </c>
       <c r="I4" t="n">
-        <v>114.4328572255196</v>
+        <v>114.4328572255197</v>
       </c>
       <c r="J4" t="n">
-        <v>114.4328572255196</v>
+        <v>114.4328572255197</v>
       </c>
       <c r="K4" t="n">
-        <v>114.4328572255196</v>
+        <v>114.4328572255197</v>
       </c>
       <c r="L4" t="n">
-        <v>114.4328572255196</v>
+        <v>114.4328572255197</v>
       </c>
       <c r="M4" t="n">
         <v>110.8773466326149</v>
@@ -26968,10 +26968,10 @@
         <v>33.76674370921978</v>
       </c>
       <c r="E3" t="n">
-        <v>159.5290837423004</v>
+        <v>159.5290837423002</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.234450328994718e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>81.50495298419855</v>
+        <v>81.50495298419844</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>29.37239364841631</v>
+        <v>29.37239364841628</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3.55551059290477</v>
+        <v>3.555510592904767</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>77.94944239129381</v>
+        <v>77.9494423912937</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>81.50495298419855</v>
+        <v>81.50495298419844</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>29.37239364841631</v>
+        <v>29.37239364841628</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31138,13 +31138,13 @@
         <v>106.2172906491666</v>
       </c>
       <c r="M3" t="n">
-        <v>86.78770803595184</v>
+        <v>123.9505682416393</v>
       </c>
       <c r="N3" t="n">
         <v>127.2311709565686</v>
       </c>
       <c r="O3" t="n">
-        <v>106.1428044880503</v>
+        <v>116.3916647984111</v>
       </c>
       <c r="P3" t="n">
         <v>93.41457227115274</v>
@@ -31372,7 +31372,7 @@
         <v>95.67215237170485</v>
       </c>
       <c r="L6" t="n">
-        <v>106.2172906491666</v>
+        <v>128.6430155406809</v>
       </c>
       <c r="M6" t="n">
         <v>86.78770803595184</v>
@@ -31612,13 +31612,13 @@
         <v>106.2172906491666</v>
       </c>
       <c r="M9" t="n">
-        <v>168.5232067584531</v>
+        <v>86.78770803595184</v>
       </c>
       <c r="N9" t="n">
-        <v>172.9835145848972</v>
+        <v>67.45823659255106</v>
       </c>
       <c r="O9" t="n">
-        <v>158.2461207724737</v>
+        <v>106.1428044880503</v>
       </c>
       <c r="P9" t="n">
         <v>113.1372509970743</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.884405937194277</v>
+        <v>1.884405937194276</v>
       </c>
       <c r="H11" t="n">
-        <v>19.29867230429089</v>
+        <v>19.29867230429088</v>
       </c>
       <c r="I11" t="n">
-        <v>72.64855989368242</v>
+        <v>72.64855989368239</v>
       </c>
       <c r="J11" t="n">
-        <v>159.9365984119429</v>
+        <v>159.9365984119428</v>
       </c>
       <c r="K11" t="n">
         <v>239.7035017333766</v>
       </c>
       <c r="L11" t="n">
-        <v>297.3733899337861</v>
+        <v>297.373389933786</v>
       </c>
       <c r="M11" t="n">
-        <v>301.5128003709485</v>
+        <v>301.5128003709483</v>
       </c>
       <c r="N11" t="n">
-        <v>336.239262388418</v>
+        <v>303.3113581470968</v>
       </c>
       <c r="O11" t="n">
-        <v>317.5012008504424</v>
+        <v>317.5012008504423</v>
       </c>
       <c r="P11" t="n">
-        <v>270.9799292759587</v>
+        <v>270.9799292759586</v>
       </c>
       <c r="Q11" t="n">
-        <v>203.4946416501886</v>
+        <v>203.4946416501885</v>
       </c>
       <c r="R11" t="n">
-        <v>118.3713144522801</v>
+        <v>118.37131445228</v>
       </c>
       <c r="S11" t="n">
-        <v>42.94090029381462</v>
+        <v>42.94090029381461</v>
       </c>
       <c r="T11" t="n">
-        <v>8.24898699006795</v>
+        <v>8.248986990067946</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1507524749755421</v>
+        <v>0.150752474975542</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,46 +31834,46 @@
         <v>1.008246063471448</v>
       </c>
       <c r="H12" t="n">
-        <v>9.737534349842671</v>
+        <v>9.737534349842667</v>
       </c>
       <c r="I12" t="n">
-        <v>34.71373508004766</v>
+        <v>34.71373508004765</v>
       </c>
       <c r="J12" t="n">
-        <v>95.25714233876519</v>
+        <v>95.25714233876515</v>
       </c>
       <c r="K12" t="n">
-        <v>162.8096285913522</v>
+        <v>132.8321428767296</v>
       </c>
       <c r="L12" t="n">
-        <v>218.9176375971668</v>
+        <v>187.722243633365</v>
       </c>
       <c r="M12" t="n">
-        <v>255.4665573980068</v>
+        <v>255.4665573980066</v>
       </c>
       <c r="N12" t="n">
-        <v>262.2279970078658</v>
+        <v>262.2279970078657</v>
       </c>
       <c r="O12" t="n">
-        <v>208.5470075</v>
+        <v>239.8873868646299</v>
       </c>
       <c r="P12" t="n">
-        <v>192.5307768044732</v>
+        <v>121.2083314817791</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.7017255757589</v>
+        <v>128.7017255757588</v>
       </c>
       <c r="R12" t="n">
-        <v>62.59969857237641</v>
+        <v>62.59969857237639</v>
       </c>
       <c r="S12" t="n">
-        <v>18.7277284157964</v>
+        <v>18.72772841579639</v>
       </c>
       <c r="T12" t="n">
-        <v>4.063939176887106</v>
+        <v>4.063939176887105</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06633197785996371</v>
+        <v>0.06633197785996368</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8452796304340725</v>
+        <v>0.8452796304340723</v>
       </c>
       <c r="H13" t="n">
-        <v>7.515304350586578</v>
+        <v>7.515304350586575</v>
       </c>
       <c r="I13" t="n">
-        <v>25.41986379523557</v>
+        <v>25.41986379523556</v>
       </c>
       <c r="J13" t="n">
-        <v>59.76126987168892</v>
+        <v>59.7612698716889</v>
       </c>
       <c r="K13" t="n">
-        <v>98.20612433588586</v>
+        <v>98.20612433588583</v>
       </c>
       <c r="L13" t="n">
         <v>125.6700279647166</v>
@@ -31934,25 +31934,25 @@
         <v>129.3508365372432</v>
       </c>
       <c r="O13" t="n">
-        <v>119.4764335817179</v>
+        <v>119.4764335817178</v>
       </c>
       <c r="P13" t="n">
         <v>102.2327291208627</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.78064250843858</v>
+        <v>70.78064250843855</v>
       </c>
       <c r="R13" t="n">
-        <v>38.00684592842656</v>
+        <v>38.00684592842655</v>
       </c>
       <c r="S13" t="n">
-        <v>14.73091865038288</v>
+        <v>14.73091865038287</v>
       </c>
       <c r="T13" t="n">
-        <v>3.611649330036491</v>
+        <v>3.61164933003649</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04610616166004038</v>
+        <v>0.04610616166004036</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,22 +31995,22 @@
         <v>19.29867230429089</v>
       </c>
       <c r="I14" t="n">
-        <v>72.64855989368242</v>
+        <v>72.64855989368243</v>
       </c>
       <c r="J14" t="n">
         <v>159.9365984119429</v>
       </c>
       <c r="K14" t="n">
-        <v>239.7035017333766</v>
+        <v>239.7035017333767</v>
       </c>
       <c r="L14" t="n">
         <v>297.3733899337861</v>
       </c>
       <c r="M14" t="n">
-        <v>330.8851940193647</v>
+        <v>301.5128003709485</v>
       </c>
       <c r="N14" t="n">
-        <v>336.239262388418</v>
+        <v>303.3113581470971</v>
       </c>
       <c r="O14" t="n">
         <v>317.5012008504424</v>
@@ -32025,10 +32025,10 @@
         <v>118.3713144522801</v>
       </c>
       <c r="S14" t="n">
-        <v>42.94090029381462</v>
+        <v>42.94090029381463</v>
       </c>
       <c r="T14" t="n">
-        <v>8.24898699006795</v>
+        <v>8.248986990067952</v>
       </c>
       <c r="U14" t="n">
         <v>0.1507524749755421</v>
@@ -32074,10 +32074,10 @@
         <v>9.737534349842671</v>
       </c>
       <c r="I15" t="n">
-        <v>34.71373508004766</v>
+        <v>34.71373508004767</v>
       </c>
       <c r="J15" t="n">
-        <v>95.25714233876519</v>
+        <v>95.25714233876521</v>
       </c>
       <c r="K15" t="n">
         <v>132.8321428767296</v>
@@ -32086,28 +32086,28 @@
         <v>106.2172906491666</v>
       </c>
       <c r="M15" t="n">
-        <v>168.2926610201505</v>
+        <v>167.1109587834472</v>
       </c>
       <c r="N15" t="n">
-        <v>262.2279970078658</v>
+        <v>148.9631895767497</v>
       </c>
       <c r="O15" t="n">
-        <v>239.88738686463</v>
+        <v>187.6477574722489</v>
       </c>
       <c r="P15" t="n">
-        <v>192.5307768044732</v>
+        <v>192.5307768044733</v>
       </c>
       <c r="Q15" t="n">
         <v>128.7017255757589</v>
       </c>
       <c r="R15" t="n">
-        <v>62.59969857237641</v>
+        <v>62.59969857237642</v>
       </c>
       <c r="S15" t="n">
         <v>18.7277284157964</v>
       </c>
       <c r="T15" t="n">
-        <v>4.063939176887106</v>
+        <v>4.063939176887107</v>
       </c>
       <c r="U15" t="n">
         <v>0.06633197785996371</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8452796304340725</v>
+        <v>0.8452796304340726</v>
       </c>
       <c r="H16" t="n">
-        <v>7.515304350586578</v>
+        <v>7.515304350586579</v>
       </c>
       <c r="I16" t="n">
         <v>25.41986379523557</v>
       </c>
       <c r="J16" t="n">
-        <v>59.76126987168892</v>
+        <v>59.76126987168893</v>
       </c>
       <c r="K16" t="n">
-        <v>98.20612433588586</v>
+        <v>98.20612433588587</v>
       </c>
       <c r="L16" t="n">
         <v>125.6700279647166</v>
@@ -32232,22 +32232,22 @@
         <v>19.29867230429089</v>
       </c>
       <c r="I17" t="n">
-        <v>72.64855989368242</v>
+        <v>72.64855989368243</v>
       </c>
       <c r="J17" t="n">
         <v>159.9365984119429</v>
       </c>
       <c r="K17" t="n">
-        <v>239.7035017333766</v>
+        <v>239.7035017333767</v>
       </c>
       <c r="L17" t="n">
         <v>297.3733899337861</v>
       </c>
       <c r="M17" t="n">
-        <v>330.8851940193647</v>
+        <v>330.8851940193648</v>
       </c>
       <c r="N17" t="n">
-        <v>336.239262388418</v>
+        <v>332.6837517955133</v>
       </c>
       <c r="O17" t="n">
         <v>317.5012008504424</v>
@@ -32262,10 +32262,10 @@
         <v>118.3713144522801</v>
       </c>
       <c r="S17" t="n">
-        <v>42.94090029381462</v>
+        <v>42.94090029381463</v>
       </c>
       <c r="T17" t="n">
-        <v>8.24898699006795</v>
+        <v>8.248986990067952</v>
       </c>
       <c r="U17" t="n">
         <v>0.1507524749755421</v>
@@ -32311,40 +32311,40 @@
         <v>9.737534349842671</v>
       </c>
       <c r="I18" t="n">
-        <v>34.71373508004766</v>
+        <v>34.71373508004767</v>
       </c>
       <c r="J18" t="n">
-        <v>95.25714233876519</v>
+        <v>95.25714233876521</v>
       </c>
       <c r="K18" t="n">
-        <v>132.8321428767296</v>
+        <v>162.8096285913522</v>
       </c>
       <c r="L18" t="n">
-        <v>218.9176375971668</v>
+        <v>217.0946372817815</v>
       </c>
       <c r="M18" t="n">
-        <v>255.4665573980068</v>
+        <v>194.6914969859231</v>
       </c>
       <c r="N18" t="n">
-        <v>262.2279970078658</v>
+        <v>178.335583225166</v>
       </c>
       <c r="O18" t="n">
-        <v>239.88738686463</v>
+        <v>106.1428044880503</v>
       </c>
       <c r="P18" t="n">
-        <v>192.5307768044732</v>
+        <v>192.5307768044733</v>
       </c>
       <c r="Q18" t="n">
         <v>128.7017255757589</v>
       </c>
       <c r="R18" t="n">
-        <v>62.59969857237641</v>
+        <v>62.59969857237642</v>
       </c>
       <c r="S18" t="n">
         <v>18.7277284157964</v>
       </c>
       <c r="T18" t="n">
-        <v>4.063939176887106</v>
+        <v>4.063939176887107</v>
       </c>
       <c r="U18" t="n">
         <v>0.06633197785996371</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8452796304340725</v>
+        <v>0.8452796304340726</v>
       </c>
       <c r="H19" t="n">
-        <v>7.515304350586578</v>
+        <v>7.515304350586579</v>
       </c>
       <c r="I19" t="n">
         <v>25.41986379523557</v>
       </c>
       <c r="J19" t="n">
-        <v>59.76126987168892</v>
+        <v>59.76126987168893</v>
       </c>
       <c r="K19" t="n">
-        <v>98.20612433588586</v>
+        <v>98.20612433588587</v>
       </c>
       <c r="L19" t="n">
         <v>125.6700279647166</v>
@@ -32469,22 +32469,22 @@
         <v>19.29867230429089</v>
       </c>
       <c r="I20" t="n">
-        <v>72.64855989368242</v>
+        <v>72.64855989368243</v>
       </c>
       <c r="J20" t="n">
         <v>159.9365984119429</v>
       </c>
       <c r="K20" t="n">
-        <v>239.7035017333766</v>
+        <v>239.7035017333767</v>
       </c>
       <c r="L20" t="n">
         <v>297.3733899337861</v>
       </c>
       <c r="M20" t="n">
-        <v>330.8851940193647</v>
+        <v>330.8851940193648</v>
       </c>
       <c r="N20" t="n">
-        <v>336.239262388418</v>
+        <v>332.6837517955133</v>
       </c>
       <c r="O20" t="n">
         <v>317.5012008504424</v>
@@ -32499,10 +32499,10 @@
         <v>118.3713144522801</v>
       </c>
       <c r="S20" t="n">
-        <v>42.94090029381462</v>
+        <v>42.94090029381463</v>
       </c>
       <c r="T20" t="n">
-        <v>8.24898699006795</v>
+        <v>8.248986990067952</v>
       </c>
       <c r="U20" t="n">
         <v>0.1507524749755421</v>
@@ -32548,40 +32548,40 @@
         <v>9.737534349842671</v>
       </c>
       <c r="I21" t="n">
-        <v>34.71373508004766</v>
+        <v>34.71373508004767</v>
       </c>
       <c r="J21" t="n">
-        <v>95.25714233876519</v>
+        <v>95.25714233876521</v>
       </c>
       <c r="K21" t="n">
         <v>132.8321428767296</v>
       </c>
       <c r="L21" t="n">
-        <v>218.9176375971668</v>
+        <v>133.2212186811456</v>
       </c>
       <c r="M21" t="n">
-        <v>255.4665573980068</v>
+        <v>197.6650546685668</v>
       </c>
       <c r="N21" t="n">
-        <v>262.2279970078658</v>
+        <v>178.335583225166</v>
       </c>
       <c r="O21" t="n">
-        <v>133.1467325200293</v>
+        <v>217.0201511206652</v>
       </c>
       <c r="P21" t="n">
-        <v>192.5307768044732</v>
+        <v>192.5307768044733</v>
       </c>
       <c r="Q21" t="n">
         <v>128.7017255757589</v>
       </c>
       <c r="R21" t="n">
-        <v>62.59969857237641</v>
+        <v>62.59969857237642</v>
       </c>
       <c r="S21" t="n">
         <v>18.7277284157964</v>
       </c>
       <c r="T21" t="n">
-        <v>4.063939176887106</v>
+        <v>4.063939176887107</v>
       </c>
       <c r="U21" t="n">
         <v>0.06633197785996371</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8452796304340725</v>
+        <v>0.8452796304340726</v>
       </c>
       <c r="H22" t="n">
-        <v>7.515304350586578</v>
+        <v>7.515304350586579</v>
       </c>
       <c r="I22" t="n">
         <v>25.41986379523557</v>
       </c>
       <c r="J22" t="n">
-        <v>59.76126987168892</v>
+        <v>59.76126987168893</v>
       </c>
       <c r="K22" t="n">
-        <v>98.20612433588586</v>
+        <v>98.20612433588587</v>
       </c>
       <c r="L22" t="n">
         <v>125.6700279647166</v>
@@ -32706,22 +32706,22 @@
         <v>19.29867230429089</v>
       </c>
       <c r="I23" t="n">
-        <v>72.64855989368242</v>
+        <v>72.64855989368243</v>
       </c>
       <c r="J23" t="n">
         <v>159.9365984119429</v>
       </c>
       <c r="K23" t="n">
-        <v>239.7035017333766</v>
+        <v>239.7035017333767</v>
       </c>
       <c r="L23" t="n">
         <v>297.3733899337861</v>
       </c>
       <c r="M23" t="n">
-        <v>330.8851940193647</v>
+        <v>330.8851940193648</v>
       </c>
       <c r="N23" t="n">
-        <v>336.239262388418</v>
+        <v>336.2392623884181</v>
       </c>
       <c r="O23" t="n">
         <v>317.5012008504424</v>
@@ -32736,10 +32736,10 @@
         <v>118.3713144522801</v>
       </c>
       <c r="S23" t="n">
-        <v>42.94090029381462</v>
+        <v>42.94090029381463</v>
       </c>
       <c r="T23" t="n">
-        <v>8.24898699006795</v>
+        <v>8.248986990067952</v>
       </c>
       <c r="U23" t="n">
         <v>0.1507524749755421</v>
@@ -32785,19 +32785,19 @@
         <v>9.737534349842671</v>
       </c>
       <c r="I24" t="n">
-        <v>34.71373508004766</v>
+        <v>34.71373508004767</v>
       </c>
       <c r="J24" t="n">
-        <v>95.25714233876519</v>
+        <v>95.25714233876521</v>
       </c>
       <c r="K24" t="n">
-        <v>162.8096285913522</v>
+        <v>132.8321428767296</v>
       </c>
       <c r="L24" t="n">
         <v>218.9176375971668</v>
       </c>
       <c r="M24" t="n">
-        <v>210.0418308050795</v>
+        <v>255.4665573980068</v>
       </c>
       <c r="N24" t="n">
         <v>262.2279970078658</v>
@@ -32806,19 +32806,19 @@
         <v>239.88738686463</v>
       </c>
       <c r="P24" t="n">
-        <v>192.5307768044732</v>
+        <v>192.5307768044733</v>
       </c>
       <c r="Q24" t="n">
         <v>128.7017255757589</v>
       </c>
       <c r="R24" t="n">
-        <v>62.59969857237641</v>
+        <v>62.59969857237642</v>
       </c>
       <c r="S24" t="n">
         <v>18.7277284157964</v>
       </c>
       <c r="T24" t="n">
-        <v>4.063939176887106</v>
+        <v>4.063939176887107</v>
       </c>
       <c r="U24" t="n">
         <v>0.06633197785996371</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8452796304340725</v>
+        <v>0.8452796304340726</v>
       </c>
       <c r="H25" t="n">
-        <v>7.515304350586578</v>
+        <v>7.515304350586579</v>
       </c>
       <c r="I25" t="n">
         <v>25.41986379523557</v>
       </c>
       <c r="J25" t="n">
-        <v>59.76126987168892</v>
+        <v>59.76126987168893</v>
       </c>
       <c r="K25" t="n">
-        <v>98.20612433588586</v>
+        <v>98.20612433588587</v>
       </c>
       <c r="L25" t="n">
         <v>125.6700279647166</v>
@@ -32943,22 +32943,22 @@
         <v>19.29867230429089</v>
       </c>
       <c r="I26" t="n">
-        <v>72.64855989368242</v>
+        <v>72.64855989368243</v>
       </c>
       <c r="J26" t="n">
         <v>159.9365984119429</v>
       </c>
       <c r="K26" t="n">
-        <v>239.7035017333766</v>
+        <v>239.7035017333767</v>
       </c>
       <c r="L26" t="n">
         <v>297.3733899337861</v>
       </c>
       <c r="M26" t="n">
-        <v>330.8851940193647</v>
+        <v>330.8851940193648</v>
       </c>
       <c r="N26" t="n">
-        <v>336.239262388418</v>
+        <v>336.2392623884181</v>
       </c>
       <c r="O26" t="n">
         <v>317.5012008504424</v>
@@ -32973,10 +32973,10 @@
         <v>118.3713144522801</v>
       </c>
       <c r="S26" t="n">
-        <v>42.94090029381462</v>
+        <v>42.94090029381463</v>
       </c>
       <c r="T26" t="n">
-        <v>8.24898699006795</v>
+        <v>8.248986990067952</v>
       </c>
       <c r="U26" t="n">
         <v>0.1507524749755421</v>
@@ -33022,40 +33022,40 @@
         <v>9.737534349842671</v>
       </c>
       <c r="I27" t="n">
-        <v>34.71373508004766</v>
+        <v>34.71373508004767</v>
       </c>
       <c r="J27" t="n">
-        <v>95.25714233876519</v>
+        <v>95.25714233876521</v>
       </c>
       <c r="K27" t="n">
         <v>162.8096285913522</v>
       </c>
       <c r="L27" t="n">
-        <v>218.9176375971668</v>
+        <v>106.655586565775</v>
       </c>
       <c r="M27" t="n">
-        <v>201.2205652614714</v>
+        <v>201.2205652614715</v>
       </c>
       <c r="N27" t="n">
-        <v>262.2279970078658</v>
+        <v>181.8910938180707</v>
       </c>
       <c r="O27" t="n">
-        <v>239.88738686463</v>
+        <v>220.57566171357</v>
       </c>
       <c r="P27" t="n">
-        <v>192.5307768044732</v>
+        <v>192.5307768044733</v>
       </c>
       <c r="Q27" t="n">
         <v>128.7017255757589</v>
       </c>
       <c r="R27" t="n">
-        <v>62.59969857237641</v>
+        <v>62.59969857237642</v>
       </c>
       <c r="S27" t="n">
         <v>18.7277284157964</v>
       </c>
       <c r="T27" t="n">
-        <v>4.063939176887106</v>
+        <v>4.063939176887107</v>
       </c>
       <c r="U27" t="n">
         <v>0.06633197785996371</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8452796304340725</v>
+        <v>0.8452796304340726</v>
       </c>
       <c r="H28" t="n">
-        <v>7.515304350586578</v>
+        <v>7.515304350586579</v>
       </c>
       <c r="I28" t="n">
         <v>25.41986379523557</v>
       </c>
       <c r="J28" t="n">
-        <v>59.76126987168892</v>
+        <v>59.76126987168893</v>
       </c>
       <c r="K28" t="n">
-        <v>98.20612433588586</v>
+        <v>98.20612433588587</v>
       </c>
       <c r="L28" t="n">
         <v>125.6700279647166</v>
@@ -33180,22 +33180,22 @@
         <v>19.29867230429089</v>
       </c>
       <c r="I29" t="n">
-        <v>72.64855989368242</v>
+        <v>72.64855989368243</v>
       </c>
       <c r="J29" t="n">
         <v>159.9365984119429</v>
       </c>
       <c r="K29" t="n">
-        <v>239.7035017333766</v>
+        <v>239.7035017333767</v>
       </c>
       <c r="L29" t="n">
         <v>297.3733899337861</v>
       </c>
       <c r="M29" t="n">
-        <v>330.8851940193647</v>
+        <v>330.8851940193648</v>
       </c>
       <c r="N29" t="n">
-        <v>336.239262388418</v>
+        <v>336.2392623884181</v>
       </c>
       <c r="O29" t="n">
         <v>317.5012008504424</v>
@@ -33210,10 +33210,10 @@
         <v>118.3713144522801</v>
       </c>
       <c r="S29" t="n">
-        <v>42.94090029381462</v>
+        <v>42.94090029381463</v>
       </c>
       <c r="T29" t="n">
-        <v>8.24898699006795</v>
+        <v>8.248986990067952</v>
       </c>
       <c r="U29" t="n">
         <v>0.1507524749755421</v>
@@ -33259,40 +33259,40 @@
         <v>9.737534349842671</v>
       </c>
       <c r="I30" t="n">
-        <v>34.71373508004766</v>
+        <v>34.71373508004767</v>
       </c>
       <c r="J30" t="n">
-        <v>95.25714233876519</v>
+        <v>95.25714233876521</v>
       </c>
       <c r="K30" t="n">
-        <v>132.8321428767296</v>
+        <v>162.8096285913522</v>
       </c>
       <c r="L30" t="n">
         <v>218.9176375971668</v>
       </c>
       <c r="M30" t="n">
-        <v>163.2281140842311</v>
+        <v>163.2281140842312</v>
       </c>
       <c r="N30" t="n">
         <v>262.2279970078658</v>
       </c>
       <c r="O30" t="n">
-        <v>239.88738686463</v>
+        <v>220.57566171357</v>
       </c>
       <c r="P30" t="n">
-        <v>192.5307768044732</v>
+        <v>192.5307768044733</v>
       </c>
       <c r="Q30" t="n">
         <v>128.7017255757589</v>
       </c>
       <c r="R30" t="n">
-        <v>62.59969857237641</v>
+        <v>62.59969857237642</v>
       </c>
       <c r="S30" t="n">
         <v>18.7277284157964</v>
       </c>
       <c r="T30" t="n">
-        <v>4.063939176887106</v>
+        <v>4.063939176887107</v>
       </c>
       <c r="U30" t="n">
         <v>0.06633197785996371</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8452796304340725</v>
+        <v>0.8452796304340726</v>
       </c>
       <c r="H31" t="n">
-        <v>7.515304350586578</v>
+        <v>7.515304350586579</v>
       </c>
       <c r="I31" t="n">
         <v>25.41986379523557</v>
       </c>
       <c r="J31" t="n">
-        <v>59.76126987168892</v>
+        <v>59.76126987168893</v>
       </c>
       <c r="K31" t="n">
-        <v>98.20612433588586</v>
+        <v>98.20612433588587</v>
       </c>
       <c r="L31" t="n">
         <v>125.6700279647166</v>
@@ -33417,22 +33417,22 @@
         <v>19.29867230429089</v>
       </c>
       <c r="I32" t="n">
-        <v>72.64855989368242</v>
+        <v>72.64855989368243</v>
       </c>
       <c r="J32" t="n">
         <v>159.9365984119429</v>
       </c>
       <c r="K32" t="n">
-        <v>239.7035017333766</v>
+        <v>239.7035017333767</v>
       </c>
       <c r="L32" t="n">
         <v>297.3733899337861</v>
       </c>
       <c r="M32" t="n">
-        <v>330.8851940193647</v>
+        <v>330.8851940193648</v>
       </c>
       <c r="N32" t="n">
-        <v>336.239262388418</v>
+        <v>336.2392623884181</v>
       </c>
       <c r="O32" t="n">
         <v>317.5012008504424</v>
@@ -33447,10 +33447,10 @@
         <v>118.3713144522801</v>
       </c>
       <c r="S32" t="n">
-        <v>42.94090029381462</v>
+        <v>42.94090029381463</v>
       </c>
       <c r="T32" t="n">
-        <v>8.24898699006795</v>
+        <v>8.248986990067952</v>
       </c>
       <c r="U32" t="n">
         <v>0.1507524749755421</v>
@@ -33496,13 +33496,13 @@
         <v>9.737534349842671</v>
       </c>
       <c r="I33" t="n">
-        <v>34.71373508004766</v>
+        <v>34.71373508004767</v>
       </c>
       <c r="J33" t="n">
-        <v>95.25714233876519</v>
+        <v>95.25714233876521</v>
       </c>
       <c r="K33" t="n">
-        <v>132.8321428767296</v>
+        <v>162.8096285913522</v>
       </c>
       <c r="L33" t="n">
         <v>218.9176375971668</v>
@@ -33517,19 +33517,19 @@
         <v>239.88738686463</v>
       </c>
       <c r="P33" t="n">
-        <v>192.5307768044732</v>
+        <v>192.5307768044733</v>
       </c>
       <c r="Q33" t="n">
         <v>128.7017255757589</v>
       </c>
       <c r="R33" t="n">
-        <v>62.59969857237641</v>
+        <v>62.59969857237642</v>
       </c>
       <c r="S33" t="n">
         <v>18.7277284157964</v>
       </c>
       <c r="T33" t="n">
-        <v>4.063939176887106</v>
+        <v>4.063939176887107</v>
       </c>
       <c r="U33" t="n">
         <v>0.06633197785996371</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8452796304340725</v>
+        <v>0.8452796304340726</v>
       </c>
       <c r="H34" t="n">
-        <v>7.515304350586578</v>
+        <v>7.515304350586579</v>
       </c>
       <c r="I34" t="n">
         <v>25.41986379523557</v>
       </c>
       <c r="J34" t="n">
-        <v>59.76126987168892</v>
+        <v>59.76126987168893</v>
       </c>
       <c r="K34" t="n">
-        <v>98.20612433588586</v>
+        <v>98.20612433588587</v>
       </c>
       <c r="L34" t="n">
         <v>125.6700279647166</v>
@@ -33654,22 +33654,22 @@
         <v>19.29867230429089</v>
       </c>
       <c r="I35" t="n">
-        <v>72.64855989368242</v>
+        <v>72.64855989368243</v>
       </c>
       <c r="J35" t="n">
         <v>159.9365984119429</v>
       </c>
       <c r="K35" t="n">
-        <v>239.7035017333766</v>
+        <v>239.7035017333767</v>
       </c>
       <c r="L35" t="n">
         <v>297.3733899337861</v>
       </c>
       <c r="M35" t="n">
-        <v>330.8851940193647</v>
+        <v>330.8851940193648</v>
       </c>
       <c r="N35" t="n">
-        <v>332.6837517955132</v>
+        <v>332.6837517955133</v>
       </c>
       <c r="O35" t="n">
         <v>317.5012008504424</v>
@@ -33684,10 +33684,10 @@
         <v>118.3713144522801</v>
       </c>
       <c r="S35" t="n">
-        <v>42.94090029381462</v>
+        <v>42.94090029381463</v>
       </c>
       <c r="T35" t="n">
-        <v>8.24898699006795</v>
+        <v>8.248986990067952</v>
       </c>
       <c r="U35" t="n">
         <v>0.1507524749755421</v>
@@ -33733,16 +33733,16 @@
         <v>9.737534349842671</v>
       </c>
       <c r="I36" t="n">
-        <v>34.71373508004766</v>
+        <v>34.71373508004767</v>
       </c>
       <c r="J36" t="n">
-        <v>95.25714233876519</v>
+        <v>95.25714233876521</v>
       </c>
       <c r="K36" t="n">
-        <v>132.8321428767296</v>
+        <v>162.8096285913522</v>
       </c>
       <c r="L36" t="n">
-        <v>218.9176375971668</v>
+        <v>196.5030325267056</v>
       </c>
       <c r="M36" t="n">
         <v>255.4665573980068</v>
@@ -33754,19 +33754,19 @@
         <v>217.0201511206652</v>
       </c>
       <c r="P36" t="n">
-        <v>192.5307768044732</v>
+        <v>192.5307768044733</v>
       </c>
       <c r="Q36" t="n">
         <v>128.7017255757589</v>
       </c>
       <c r="R36" t="n">
-        <v>62.59969857237641</v>
+        <v>62.59969857237642</v>
       </c>
       <c r="S36" t="n">
         <v>18.7277284157964</v>
       </c>
       <c r="T36" t="n">
-        <v>4.063939176887106</v>
+        <v>4.063939176887107</v>
       </c>
       <c r="U36" t="n">
         <v>0.06633197785996371</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8452796304340725</v>
+        <v>0.8452796304340726</v>
       </c>
       <c r="H37" t="n">
-        <v>7.515304350586578</v>
+        <v>7.515304350586579</v>
       </c>
       <c r="I37" t="n">
         <v>25.41986379523557</v>
       </c>
       <c r="J37" t="n">
-        <v>59.76126987168892</v>
+        <v>59.76126987168893</v>
       </c>
       <c r="K37" t="n">
-        <v>98.20612433588586</v>
+        <v>98.20612433588587</v>
       </c>
       <c r="L37" t="n">
         <v>125.6700279647166</v>
@@ -33891,22 +33891,22 @@
         <v>19.29867230429089</v>
       </c>
       <c r="I38" t="n">
-        <v>72.64855989368242</v>
+        <v>72.64855989368243</v>
       </c>
       <c r="J38" t="n">
         <v>159.9365984119429</v>
       </c>
       <c r="K38" t="n">
-        <v>239.7035017333766</v>
+        <v>239.7035017333767</v>
       </c>
       <c r="L38" t="n">
         <v>297.3733899337861</v>
       </c>
       <c r="M38" t="n">
-        <v>330.8851940193647</v>
+        <v>330.8851940193648</v>
       </c>
       <c r="N38" t="n">
-        <v>332.6837517955132</v>
+        <v>332.6837517955133</v>
       </c>
       <c r="O38" t="n">
         <v>317.5012008504424</v>
@@ -33921,10 +33921,10 @@
         <v>118.3713144522801</v>
       </c>
       <c r="S38" t="n">
-        <v>42.94090029381462</v>
+        <v>42.94090029381463</v>
       </c>
       <c r="T38" t="n">
-        <v>8.24898699006795</v>
+        <v>8.248986990067952</v>
       </c>
       <c r="U38" t="n">
         <v>0.1507524749755421</v>
@@ -33970,40 +33970,40 @@
         <v>9.737534349842671</v>
       </c>
       <c r="I39" t="n">
-        <v>34.71373508004766</v>
+        <v>34.71373508004767</v>
       </c>
       <c r="J39" t="n">
-        <v>95.25714233876519</v>
+        <v>95.25714233876521</v>
       </c>
       <c r="K39" t="n">
         <v>162.8096285913522</v>
       </c>
       <c r="L39" t="n">
-        <v>218.9176375971668</v>
+        <v>196.5030325267056</v>
       </c>
       <c r="M39" t="n">
         <v>255.4665573980068</v>
       </c>
       <c r="N39" t="n">
-        <v>262.2279970078658</v>
+        <v>178.335583225166</v>
       </c>
       <c r="O39" t="n">
-        <v>208.5470075</v>
+        <v>217.0201511206652</v>
       </c>
       <c r="P39" t="n">
-        <v>192.5307768044732</v>
+        <v>192.5307768044733</v>
       </c>
       <c r="Q39" t="n">
         <v>128.7017255757589</v>
       </c>
       <c r="R39" t="n">
-        <v>62.59969857237641</v>
+        <v>62.59969857237642</v>
       </c>
       <c r="S39" t="n">
         <v>18.7277284157964</v>
       </c>
       <c r="T39" t="n">
-        <v>4.063939176887106</v>
+        <v>4.063939176887107</v>
       </c>
       <c r="U39" t="n">
         <v>0.06633197785996371</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8452796304340725</v>
+        <v>0.8452796304340726</v>
       </c>
       <c r="H40" t="n">
-        <v>7.515304350586578</v>
+        <v>7.515304350586579</v>
       </c>
       <c r="I40" t="n">
         <v>25.41986379523557</v>
       </c>
       <c r="J40" t="n">
-        <v>59.76126987168892</v>
+        <v>59.76126987168893</v>
       </c>
       <c r="K40" t="n">
-        <v>98.20612433588586</v>
+        <v>98.20612433588587</v>
       </c>
       <c r="L40" t="n">
         <v>125.6700279647166</v>
@@ -34128,19 +34128,19 @@
         <v>19.29867230429089</v>
       </c>
       <c r="I41" t="n">
-        <v>72.64855989368242</v>
+        <v>72.64855989368243</v>
       </c>
       <c r="J41" t="n">
         <v>159.9365984119429</v>
       </c>
       <c r="K41" t="n">
-        <v>239.7035017333766</v>
+        <v>239.7035017333767</v>
       </c>
       <c r="L41" t="n">
         <v>297.3733899337861</v>
       </c>
       <c r="M41" t="n">
-        <v>301.5128003709485</v>
+        <v>330.8851940193648</v>
       </c>
       <c r="N41" t="n">
         <v>303.3113581470971</v>
@@ -34158,10 +34158,10 @@
         <v>118.3713144522801</v>
       </c>
       <c r="S41" t="n">
-        <v>42.94090029381462</v>
+        <v>42.94090029381463</v>
       </c>
       <c r="T41" t="n">
-        <v>8.24898699006795</v>
+        <v>8.248986990067952</v>
       </c>
       <c r="U41" t="n">
         <v>0.1507524749755421</v>
@@ -34207,40 +34207,40 @@
         <v>9.737534349842671</v>
       </c>
       <c r="I42" t="n">
-        <v>34.71373508004766</v>
+        <v>34.71373508004767</v>
       </c>
       <c r="J42" t="n">
-        <v>95.25714233876519</v>
+        <v>95.25714233876521</v>
       </c>
       <c r="K42" t="n">
         <v>162.8096285913522</v>
       </c>
       <c r="L42" t="n">
-        <v>202.635780428066</v>
+        <v>154.4516285052396</v>
       </c>
       <c r="M42" t="n">
         <v>255.4665573980068</v>
       </c>
       <c r="N42" t="n">
-        <v>148.9631895767497</v>
+        <v>262.2279970078658</v>
       </c>
       <c r="O42" t="n">
         <v>187.6477574722489</v>
       </c>
       <c r="P42" t="n">
-        <v>192.5307768044732</v>
+        <v>113.1372509970743</v>
       </c>
       <c r="Q42" t="n">
         <v>128.7017255757589</v>
       </c>
       <c r="R42" t="n">
-        <v>62.59969857237641</v>
+        <v>62.59969857237642</v>
       </c>
       <c r="S42" t="n">
         <v>18.7277284157964</v>
       </c>
       <c r="T42" t="n">
-        <v>4.063939176887106</v>
+        <v>4.063939176887107</v>
       </c>
       <c r="U42" t="n">
         <v>0.06633197785996371</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8452796304340725</v>
+        <v>0.8452796304340726</v>
       </c>
       <c r="H43" t="n">
-        <v>7.515304350586578</v>
+        <v>7.515304350586579</v>
       </c>
       <c r="I43" t="n">
         <v>25.41986379523557</v>
       </c>
       <c r="J43" t="n">
-        <v>59.76126987168892</v>
+        <v>59.76126987168893</v>
       </c>
       <c r="K43" t="n">
-        <v>98.20612433588586</v>
+        <v>98.20612433588587</v>
       </c>
       <c r="L43" t="n">
         <v>125.6700279647166</v>
@@ -34365,13 +34365,13 @@
         <v>19.29867230429089</v>
       </c>
       <c r="I44" t="n">
-        <v>72.64855989368242</v>
+        <v>72.64855989368243</v>
       </c>
       <c r="J44" t="n">
         <v>159.9365984119429</v>
       </c>
       <c r="K44" t="n">
-        <v>239.7035017333766</v>
+        <v>239.7035017333767</v>
       </c>
       <c r="L44" t="n">
         <v>297.3733899337861</v>
@@ -34380,7 +34380,7 @@
         <v>301.5128003709485</v>
       </c>
       <c r="N44" t="n">
-        <v>303.3113581470971</v>
+        <v>336.2392623884181</v>
       </c>
       <c r="O44" t="n">
         <v>317.5012008504424</v>
@@ -34395,10 +34395,10 @@
         <v>118.3713144522801</v>
       </c>
       <c r="S44" t="n">
-        <v>42.94090029381462</v>
+        <v>42.94090029381463</v>
       </c>
       <c r="T44" t="n">
-        <v>8.24898699006795</v>
+        <v>8.248986990067952</v>
       </c>
       <c r="U44" t="n">
         <v>0.1507524749755421</v>
@@ -34444,40 +34444,40 @@
         <v>9.737534349842671</v>
       </c>
       <c r="I45" t="n">
-        <v>34.71373508004766</v>
+        <v>34.71373508004767</v>
       </c>
       <c r="J45" t="n">
-        <v>95.25714233876519</v>
+        <v>95.25714233876521</v>
       </c>
       <c r="K45" t="n">
         <v>132.8321428767296</v>
       </c>
       <c r="L45" t="n">
-        <v>187.7222436333653</v>
+        <v>218.9176375971668</v>
       </c>
       <c r="M45" t="n">
         <v>168.2926610201505</v>
       </c>
       <c r="N45" t="n">
-        <v>145.6700601632467</v>
+        <v>262.2279970078658</v>
       </c>
       <c r="O45" t="n">
         <v>187.6477574722489</v>
       </c>
       <c r="P45" t="n">
-        <v>113.1372509970743</v>
+        <v>192.5307768044733</v>
       </c>
       <c r="Q45" t="n">
         <v>128.7017255757589</v>
       </c>
       <c r="R45" t="n">
-        <v>62.59969857237641</v>
+        <v>62.59969857237642</v>
       </c>
       <c r="S45" t="n">
         <v>18.7277284157964</v>
       </c>
       <c r="T45" t="n">
-        <v>4.063939176887106</v>
+        <v>4.063939176887107</v>
       </c>
       <c r="U45" t="n">
         <v>0.06633197785996371</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8452796304340725</v>
+        <v>0.8452796304340726</v>
       </c>
       <c r="H46" t="n">
-        <v>7.515304350586578</v>
+        <v>7.515304350586579</v>
       </c>
       <c r="I46" t="n">
         <v>25.41986379523557</v>
       </c>
       <c r="J46" t="n">
-        <v>59.76126987168892</v>
+        <v>59.76126987168893</v>
       </c>
       <c r="K46" t="n">
-        <v>98.20612433588586</v>
+        <v>98.20612433588587</v>
       </c>
       <c r="L46" t="n">
         <v>125.6700279647166</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>2.099901848595437</v>
+        <v>2.099901848595351</v>
       </c>
       <c r="L11" t="n">
-        <v>61.15692382329684</v>
+        <v>61.15692382329672</v>
       </c>
       <c r="M11" t="n">
-        <v>81.50495298419864</v>
+        <v>81.5049529841984</v>
       </c>
       <c r="N11" t="n">
-        <v>81.50495298419864</v>
+        <v>81.5049529841984</v>
       </c>
       <c r="O11" t="n">
-        <v>79.99061377453936</v>
+        <v>79.99061377453924</v>
       </c>
       <c r="P11" t="n">
-        <v>16.46933710846247</v>
+        <v>16.46933710846235</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>81.50495298419864</v>
+        <v>81.5049529841984</v>
       </c>
       <c r="M12" t="n">
-        <v>81.50495298419864</v>
+        <v>81.5049529841984</v>
       </c>
       <c r="N12" t="n">
-        <v>80.32325074749538</v>
+        <v>70.14074308599069</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>81.5049529841984</v>
       </c>
       <c r="P12" t="n">
-        <v>79.39352580739892</v>
+        <v>8.071080484704783</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>2.099901848595437</v>
+        <v>2.099901848595465</v>
       </c>
       <c r="L14" t="n">
         <v>61.15692382329684</v>
@@ -35734,16 +35734,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
+        <v>80.32325074749538</v>
+      </c>
+      <c r="N15" t="n">
         <v>81.50495298419864</v>
-      </c>
-      <c r="N15" t="n">
-        <v>80.32325074749538</v>
       </c>
       <c r="O15" t="n">
         <v>81.50495298419864</v>
       </c>
       <c r="P15" t="n">
-        <v>79.39352580739892</v>
+        <v>79.39352580739894</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>2.099901848595437</v>
+        <v>2.099901848595465</v>
       </c>
       <c r="L17" t="n">
         <v>61.15692382329684</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>29.97748571462265</v>
       </c>
       <c r="L18" t="n">
-        <v>27.00392803197895</v>
+        <v>110.8773466326149</v>
       </c>
       <c r="M18" t="n">
-        <v>110.8773466326149</v>
+        <v>107.9037889499713</v>
       </c>
       <c r="N18" t="n">
         <v>110.8773466326149</v>
       </c>
       <c r="O18" t="n">
-        <v>110.8773466326149</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>79.39352580739892</v>
+        <v>79.39352580739894</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>2.099901848595437</v>
+        <v>2.099901848595465</v>
       </c>
       <c r="L20" t="n">
         <v>61.15692382329684</v>
@@ -36205,7 +36205,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>110.8773466326149</v>
+        <v>27.003928031979</v>
       </c>
       <c r="M21" t="n">
         <v>110.8773466326149</v>
@@ -36214,10 +36214,10 @@
         <v>110.8773466326149</v>
       </c>
       <c r="O21" t="n">
-        <v>27.003928031979</v>
+        <v>110.8773466326149</v>
       </c>
       <c r="P21" t="n">
-        <v>79.39352580739892</v>
+        <v>79.39352580739894</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>2.099901848595437</v>
+        <v>2.099901848595465</v>
       </c>
       <c r="L23" t="n">
         <v>61.15692382329684</v>
@@ -36369,7 +36369,7 @@
         <v>110.8773466326149</v>
       </c>
       <c r="N23" t="n">
-        <v>114.4328572255196</v>
+        <v>114.4328572255197</v>
       </c>
       <c r="O23" t="n">
         <v>79.99061377453936</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>29.97748571462265</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>112.7003469480002</v>
       </c>
       <c r="M24" t="n">
-        <v>2.17080619412773</v>
+        <v>114.4328572255197</v>
       </c>
       <c r="N24" t="n">
-        <v>114.4328572255196</v>
+        <v>114.4328572255197</v>
       </c>
       <c r="O24" t="n">
-        <v>114.4328572255196</v>
+        <v>32.14829190875056</v>
       </c>
       <c r="P24" t="n">
-        <v>79.39352580739892</v>
+        <v>79.39352580739894</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>2.099901848595437</v>
+        <v>2.099901848595465</v>
       </c>
       <c r="L26" t="n">
         <v>61.15692382329684</v>
@@ -36606,7 +36606,7 @@
         <v>110.8773466326149</v>
       </c>
       <c r="N26" t="n">
-        <v>114.4328572255196</v>
+        <v>114.4328572255197</v>
       </c>
       <c r="O26" t="n">
         <v>79.99061377453936</v>
@@ -36679,19 +36679,19 @@
         <v>29.97748571462265</v>
       </c>
       <c r="L27" t="n">
-        <v>83.53077377749794</v>
+        <v>0.4382959166084152</v>
       </c>
       <c r="M27" t="n">
-        <v>114.4328572255196</v>
+        <v>114.4328572255197</v>
       </c>
       <c r="N27" t="n">
-        <v>114.4328572255196</v>
+        <v>114.4328572255197</v>
       </c>
       <c r="O27" t="n">
-        <v>31.34037936463</v>
+        <v>114.4328572255197</v>
       </c>
       <c r="P27" t="n">
-        <v>79.39352580739892</v>
+        <v>79.39352580739894</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>2.099901848595437</v>
+        <v>2.099901848595465</v>
       </c>
       <c r="L29" t="n">
         <v>61.15692382329684</v>
@@ -36843,7 +36843,7 @@
         <v>110.8773466326149</v>
       </c>
       <c r="N29" t="n">
-        <v>114.4328572255196</v>
+        <v>114.4328572255197</v>
       </c>
       <c r="O29" t="n">
         <v>79.99061377453936</v>
@@ -36919,16 +36919,16 @@
         <v>112.7003469480002</v>
       </c>
       <c r="M30" t="n">
-        <v>76.44040604827924</v>
+        <v>76.44040604827937</v>
       </c>
       <c r="N30" t="n">
         <v>70.14074308599081</v>
       </c>
       <c r="O30" t="n">
-        <v>114.4328572255196</v>
+        <v>114.4328572255197</v>
       </c>
       <c r="P30" t="n">
-        <v>79.39352580739892</v>
+        <v>79.39352580739894</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>2.099901848595437</v>
+        <v>2.099901848595465</v>
       </c>
       <c r="L32" t="n">
         <v>61.15692382329684</v>
@@ -37080,7 +37080,7 @@
         <v>110.8773466326149</v>
       </c>
       <c r="N32" t="n">
-        <v>114.4328572255196</v>
+        <v>114.4328572255197</v>
       </c>
       <c r="O32" t="n">
         <v>79.99061377453936</v>
@@ -37156,16 +37156,16 @@
         <v>112.7003469480002</v>
       </c>
       <c r="M33" t="n">
-        <v>114.4328572255196</v>
+        <v>114.4328572255197</v>
       </c>
       <c r="N33" t="n">
-        <v>114.4328572255196</v>
+        <v>70.14074308599081</v>
       </c>
       <c r="O33" t="n">
-        <v>32.14829190875044</v>
+        <v>76.4404060482794</v>
       </c>
       <c r="P33" t="n">
-        <v>79.39352580739892</v>
+        <v>79.39352580739894</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>2.099901848595437</v>
+        <v>2.099901848595465</v>
       </c>
       <c r="L35" t="n">
         <v>61.15692382329684</v>
@@ -37390,10 +37390,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>27.00392803197895</v>
+        <v>90.28574187753897</v>
       </c>
       <c r="M36" t="n">
-        <v>110.8773466326149</v>
+        <v>47.59553278705496</v>
       </c>
       <c r="N36" t="n">
         <v>110.8773466326149</v>
@@ -37402,7 +37402,7 @@
         <v>110.8773466326149</v>
       </c>
       <c r="P36" t="n">
-        <v>79.39352580739892</v>
+        <v>79.39352580739894</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>2.099901848595437</v>
+        <v>2.099901848595465</v>
       </c>
       <c r="L38" t="n">
         <v>61.15692382329684</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>29.97748571462265</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
+        <v>90.28574187753897</v>
+      </c>
+      <c r="M39" t="n">
+        <v>47.59553278705496</v>
+      </c>
+      <c r="N39" t="n">
         <v>110.8773466326149</v>
       </c>
-      <c r="M39" t="n">
+      <c r="O39" t="n">
         <v>110.8773466326149</v>
       </c>
-      <c r="N39" t="n">
-        <v>107.9037889499712</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
       <c r="P39" t="n">
-        <v>79.39352580739892</v>
+        <v>79.39352580739894</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>2.099901848595437</v>
+        <v>2.099901848595465</v>
       </c>
       <c r="L41" t="n">
         <v>61.15692382329684</v>
@@ -37864,10 +37864,10 @@
         <v>29.97748571462265</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>48.23433785607301</v>
       </c>
       <c r="M42" t="n">
-        <v>50.34576503287272</v>
+        <v>81.50495298419864</v>
       </c>
       <c r="N42" t="n">
         <v>81.50495298419864</v>
@@ -37876,7 +37876,7 @@
         <v>81.50495298419864</v>
       </c>
       <c r="P42" t="n">
-        <v>79.39352580739892</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>2.099901848595437</v>
+        <v>2.099901848595465</v>
       </c>
       <c r="L44" t="n">
         <v>61.15692382329684</v>
